--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_16.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88977.02428966439</v>
+        <v>88977.0242896642</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12882298.83281964</v>
+        <v>12882298.83281962</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>66.89487755631819</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="E12" t="n">
-        <v>75.9478628023595</v>
+        <v>66.89487755631819</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.090887922119286</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="T12" t="n">
-        <v>62.80398963419896</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>66.89487755631819</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.40922732593032</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="U13" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4856502303879093</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.83348434264539</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>66.89487755631822</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367293</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.469579910408618</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.89487755631833</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>75.94786280235962</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4856502303880122</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.4092273259303</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="T16" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="U16" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.4856502303878847</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>295.7887992452487</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>86.93486698677653</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028021</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>104.6754635109996</v>
       </c>
       <c r="H18" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>161.3419986893215</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.8332284553781</v>
+        <v>127.6063787117351</v>
       </c>
       <c r="I19" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S19" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>386.3503344499277</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>106.2477708191575</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H20" t="n">
         <v>283.9738944557603</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098241</v>
       </c>
       <c r="T21" t="n">
         <v>152.7312370348056</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2247,16 +2247,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>43.80633666491852</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I22" t="n">
         <v>83.80004204681615</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>6.710352661917987</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>43.21855977951772</v>
       </c>
       <c r="D23" t="n">
-        <v>104.3524869098928</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2481,10 +2481,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>115.9515049074865</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>147.5090687066174</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2493,10 +2493,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>154.1896645729011</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>245.4910145093961</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098241</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>157.8752232710656</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681615</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>6.710352661917536</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>206.4163792841296</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>14.47243596714445</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T30" t="n">
         <v>152.7312370348056</v>
@@ -2958,19 +2958,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.8044824656389</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>81.30430253225526</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>148.8972172888995</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>344.7306239564235</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3198,16 +3198,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681615</v>
+        <v>8.128973276943574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>79.14982091243833</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>339.923880539065</v>
+        <v>354.5081466768261</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385439</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>158.469710595162</v>
       </c>
       <c r="G37" t="n">
-        <v>122.7310677684676</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>354.5081466768256</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>11.97336091065153</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>116.0964337845582</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,7 +3675,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>122.7310677684678</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>33.97409577832644</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>334.2242032790911</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505086</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>93.35052185511493</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>227.3105240712994</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.5374996119393</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>70.53404966879752</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.0192281788759</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>90.30961686957086</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
         <v>279.9132448002744</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5058548875413</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="C11" t="n">
-        <v>82.79084195586502</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="D11" t="n">
-        <v>82.79084195586502</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="E11" t="n">
-        <v>82.79084195586502</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="F11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="G11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="H11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="I11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747877</v>
+        <v>8.518653200747849</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418866</v>
+        <v>32.7289132941886</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020686</v>
+        <v>77.70909531020678</v>
       </c>
       <c r="M11" t="n">
         <v>140.5843367211123</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O11" t="n">
         <v>263.0412330294158</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038204</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="S11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="T11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="U11" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V11" t="n">
-        <v>303.791451209438</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="W11" t="n">
-        <v>303.791451209438</v>
+        <v>82.79084195586501</v>
       </c>
       <c r="X11" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.2208678192175</v>
+        <v>6.075829024188758</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.92305197820772</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="C12" t="n">
-        <v>86.92305197820772</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="D12" t="n">
-        <v>86.92305197820772</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="E12" t="n">
-        <v>10.20803904653147</v>
+        <v>82.79084195586501</v>
       </c>
       <c r="F12" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="G12" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="H12" t="n">
-        <v>10.20803904653147</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="I12" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="J12" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194803</v>
+        <v>27.18934645194804</v>
       </c>
       <c r="L12" t="n">
         <v>74.33970537129223</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011797</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956371</v>
       </c>
       <c r="O12" t="n">
         <v>262.9301139282918</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741907</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R12" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="S12" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="T12" t="n">
-        <v>240.3530778415602</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U12" t="n">
-        <v>240.3530778415602</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V12" t="n">
-        <v>240.3530778415602</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="W12" t="n">
-        <v>240.3530778415602</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="X12" t="n">
-        <v>163.638064909884</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="Y12" t="n">
-        <v>86.92305197820772</v>
+        <v>227.0764382777617</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440917</v>
       </c>
       <c r="C13" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440917</v>
       </c>
       <c r="D13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="E13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="F13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="G13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="H13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="I13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188758</v>
       </c>
       <c r="J13" t="n">
-        <v>6.07582902418876</v>
+        <v>48.19497630457663</v>
       </c>
       <c r="K13" t="n">
-        <v>81.26421319852466</v>
+        <v>123.3833604789125</v>
       </c>
       <c r="L13" t="n">
-        <v>86.13945075206809</v>
+        <v>128.2585980324559</v>
       </c>
       <c r="M13" t="n">
-        <v>161.327834926404</v>
+        <v>134.7184570946651</v>
       </c>
       <c r="N13" t="n">
-        <v>170.8163909705177</v>
+        <v>144.2070131387788</v>
       </c>
       <c r="O13" t="n">
-        <v>228.6030670351021</v>
+        <v>219.3953973131147</v>
       </c>
       <c r="P13" t="n">
-        <v>303.791451209438</v>
+        <v>294.5837814874506</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R13" t="n">
-        <v>236.7114236074881</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="S13" t="n">
-        <v>159.9964106758119</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="T13" t="n">
-        <v>83.28139774413563</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U13" t="n">
-        <v>6.566384812459376</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V13" t="n">
-        <v>6.566384812459376</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="W13" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="X13" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440917</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440917</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65299388648466</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="C14" t="n">
-        <v>57.65299388648466</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="D14" t="n">
-        <v>57.65299388648466</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="E14" t="n">
-        <v>57.65299388648466</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="F14" t="n">
-        <v>57.65299388648466</v>
+        <v>73.6464124144092</v>
       </c>
       <c r="G14" t="n">
-        <v>57.65299388648466</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="H14" t="n">
-        <v>57.65299388648466</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="I14" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747949</v>
+        <v>8.518653200747869</v>
       </c>
       <c r="K14" t="n">
-        <v>32.7289132941888</v>
+        <v>32.72891329418864</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020715</v>
+        <v>77.70909531020683</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211128</v>
+        <v>140.5843367211124</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655153</v>
+        <v>206.3455576655148</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294164</v>
+        <v>263.0412330294158</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038209</v>
+        <v>297.4567749038204</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R14" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="S14" t="n">
-        <v>227.0764382777621</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="T14" t="n">
-        <v>150.3614253460857</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="U14" t="n">
-        <v>150.3614253460857</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="V14" t="n">
-        <v>150.3614253460857</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="W14" t="n">
-        <v>150.3614253460857</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="X14" t="n">
-        <v>150.3614253460857</v>
+        <v>150.3614253460854</v>
       </c>
       <c r="Y14" t="n">
-        <v>73.6464124144093</v>
+        <v>150.3614253460854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.07582902418877</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="C15" t="n">
-        <v>6.07582902418877</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="D15" t="n">
-        <v>6.07582902418877</v>
+        <v>225.5920141258337</v>
       </c>
       <c r="E15" t="n">
-        <v>6.07582902418877</v>
+        <v>225.5920141258337</v>
       </c>
       <c r="F15" t="n">
-        <v>6.07582902418877</v>
+        <v>148.8770011941575</v>
       </c>
       <c r="G15" t="n">
-        <v>6.07582902418877</v>
+        <v>72.16198826248132</v>
       </c>
       <c r="H15" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="I15" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="J15" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188586</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194785</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129233</v>
+        <v>74.33970537129203</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011799</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956374</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741912</v>
+        <v>299.5375944741906</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R15" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="S15" t="n">
-        <v>236.2208678192179</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="T15" t="n">
-        <v>236.2208678192179</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="U15" t="n">
-        <v>236.2208678192179</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="V15" t="n">
-        <v>159.5058548875415</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="W15" t="n">
-        <v>82.79084195586516</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="X15" t="n">
-        <v>6.07582902418877</v>
+        <v>227.0764382777616</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.07582902418877</v>
+        <v>227.0764382777616</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="C16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="D16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="E16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="F16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="G16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="H16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="I16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="J16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="K16" t="n">
-        <v>6.07582902418877</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="L16" t="n">
-        <v>81.26421319852479</v>
+        <v>81.2642131985246</v>
       </c>
       <c r="M16" t="n">
-        <v>152.8772665983642</v>
+        <v>87.72407226073376</v>
       </c>
       <c r="N16" t="n">
-        <v>228.0656507727002</v>
+        <v>97.21262830484748</v>
       </c>
       <c r="O16" t="n">
-        <v>228.6030670351025</v>
+        <v>153.4146828607661</v>
       </c>
       <c r="P16" t="n">
-        <v>303.7914512094385</v>
+        <v>228.603067035102</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.7914512094385</v>
+        <v>303.7914512094378</v>
       </c>
       <c r="R16" t="n">
-        <v>236.7114236074887</v>
+        <v>236.711423607488</v>
       </c>
       <c r="S16" t="n">
-        <v>159.9964106758123</v>
+        <v>159.9964106758118</v>
       </c>
       <c r="T16" t="n">
-        <v>83.28139774413589</v>
+        <v>83.28139774413556</v>
       </c>
       <c r="U16" t="n">
-        <v>6.566384812459489</v>
+        <v>6.566384812459347</v>
       </c>
       <c r="V16" t="n">
-        <v>6.566384812459489</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="W16" t="n">
-        <v>6.566384812459489</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="X16" t="n">
-        <v>6.566384812459489</v>
+        <v>6.075829024188756</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.566384812459489</v>
+        <v>6.075829024188756</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.2630018402593</v>
+        <v>1269.415173022841</v>
       </c>
       <c r="C17" t="n">
-        <v>339.2630018402593</v>
+        <v>859.2905823361116</v>
       </c>
       <c r="D17" t="n">
-        <v>40.48643694606872</v>
+        <v>454.826652429172</v>
       </c>
       <c r="E17" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F17" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G17" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H17" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I17" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J17" t="n">
         <v>167.5334271492899</v>
       </c>
       <c r="K17" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L17" t="n">
-        <v>641.1850750879078</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M17" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501309</v>
       </c>
       <c r="N17" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O17" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P17" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q17" t="n">
         <v>1966.084838463273</v>
@@ -5542,25 +5542,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S17" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T17" t="n">
-        <v>1730.670028080286</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U17" t="n">
-        <v>1473.79753042052</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.959975757001</v>
+        <v>1679.636352687331</v>
       </c>
       <c r="W17" t="n">
-        <v>740.1996748921692</v>
+        <v>1679.636352687331</v>
       </c>
       <c r="X17" t="n">
-        <v>740.1996748921692</v>
+        <v>1679.636352687331</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.2630018402593</v>
+        <v>1679.636352687331</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090097</v>
       </c>
       <c r="C18" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579554</v>
       </c>
       <c r="D18" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E18" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F18" t="n">
         <v>204.8233649521798</v>
@@ -5588,58 +5588,58 @@
         <v>99.09057352692761</v>
       </c>
       <c r="H18" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I18" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505508</v>
       </c>
       <c r="J18" t="n">
-        <v>371.8168719145381</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K18" t="n">
-        <v>515.5388644458296</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L18" t="n">
-        <v>727.551448967487</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M18" t="n">
-        <v>982.799666726455</v>
+        <v>963.2318628767578</v>
       </c>
       <c r="N18" t="n">
-        <v>1250.639046485604</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O18" t="n">
-        <v>1486.660735239584</v>
+        <v>1467.092931389887</v>
       </c>
       <c r="P18" t="n">
-        <v>1668.259056675767</v>
+        <v>1648.69125282607</v>
       </c>
       <c r="Q18" t="n">
-        <v>2006.22131270252</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R18" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S18" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T18" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U18" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V18" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W18" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941874</v>
       </c>
       <c r="X18" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807663</v>
       </c>
       <c r="Y18" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445964</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1079.573125074293</v>
+        <v>499.9697860934979</v>
       </c>
       <c r="C19" t="n">
-        <v>916.6014092264938</v>
+        <v>328.8764136552144</v>
       </c>
       <c r="D19" t="n">
-        <v>757.1067645494038</v>
+        <v>169.3817689781244</v>
       </c>
       <c r="E19" t="n">
-        <v>596.1959494177233</v>
+        <v>169.3817689781244</v>
       </c>
       <c r="F19" t="n">
-        <v>431.5648235283147</v>
+        <v>169.3817689781244</v>
       </c>
       <c r="G19" t="n">
-        <v>265.3685283624266</v>
+        <v>169.3817689781244</v>
       </c>
       <c r="H19" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I19" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J19" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909253</v>
       </c>
       <c r="K19" t="n">
-        <v>402.1925459421785</v>
+        <v>337.1911823108422</v>
       </c>
       <c r="L19" t="n">
-        <v>815.6863250168146</v>
+        <v>750.6849613854783</v>
       </c>
       <c r="M19" t="n">
-        <v>1266.896543402695</v>
+        <v>1201.895179771359</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.145037964105</v>
+        <v>1308.79510489982</v>
       </c>
       <c r="O19" t="n">
         <v>1541.657620062866</v>
       </c>
       <c r="P19" t="n">
-        <v>1872.28415574375</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q19" t="n">
         <v>2024.321847303436</v>
@@ -5700,25 +5700,25 @@
         <v>1986.445114104106</v>
       </c>
       <c r="S19" t="n">
-        <v>1818.423362863341</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T19" t="n">
-        <v>1583.378488176654</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="U19" t="n">
-        <v>1583.378488176654</v>
+        <v>1703.704462790698</v>
       </c>
       <c r="V19" t="n">
-        <v>1583.378488176654</v>
+        <v>1429.81871773022</v>
       </c>
       <c r="W19" t="n">
-        <v>1304.308823685529</v>
+        <v>1150.749053239094</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.308823685529</v>
+        <v>912.4051910987775</v>
       </c>
       <c r="Y19" t="n">
-        <v>1079.573125074293</v>
+        <v>687.6694924875422</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1674.484292639917</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="C20" t="n">
-        <v>1674.484292639917</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="D20" t="n">
-        <v>1270.020362732977</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="E20" t="n">
-        <v>855.6801472498739</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F20" t="n">
-        <v>434.6497352035615</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G20" t="n">
         <v>327.3287545781499</v>
       </c>
       <c r="H20" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I20" t="n">
         <v>44.64574590746555</v>
@@ -5755,22 +5755,22 @@
         <v>167.5334271492899</v>
       </c>
       <c r="K20" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752971</v>
       </c>
       <c r="L20" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879084</v>
       </c>
       <c r="M20" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501314</v>
       </c>
       <c r="N20" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O20" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P20" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q20" t="n">
         <v>1966.084838463273</v>
@@ -5779,25 +5779,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T20" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U20" t="n">
-        <v>2024.321847303436</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V20" t="n">
-        <v>1674.484292639917</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W20" t="n">
-        <v>1674.484292639917</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="X20" t="n">
-        <v>1674.484292639917</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1674.484292639917</v>
+        <v>1123.959975757001</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G21" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H21" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I21" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J21" t="n">
-        <v>251.3050691308923</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K21" t="n">
-        <v>752.3247263384927</v>
+        <v>252.3026566214989</v>
       </c>
       <c r="L21" t="n">
-        <v>964.3373108601501</v>
+        <v>464.3152411431562</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.585528619118</v>
+        <v>721.4072827170463</v>
       </c>
       <c r="N21" t="n">
-        <v>1487.424908378267</v>
+        <v>1222.426939924647</v>
       </c>
       <c r="O21" t="n">
         <v>1723.446597132247</v>
@@ -5852,7 +5852,7 @@
         <v>1905.04491856843</v>
       </c>
       <c r="Q21" t="n">
-        <v>2006.22131270252</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R21" t="n">
         <v>2024.321847303436</v>
@@ -5861,7 +5861,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T21" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U21" t="n">
         <v>1588.14395921251</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>499.9697860934974</v>
+        <v>1087.694781664777</v>
       </c>
       <c r="C22" t="n">
-        <v>328.8764136552139</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="D22" t="n">
-        <v>169.3817689781239</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E22" t="n">
-        <v>125.1329440640648</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F22" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G22" t="n">
-        <v>125.1329440640648</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H22" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I22" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J22" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K22" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L22" t="n">
-        <v>815.6863250168146</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M22" t="n">
-        <v>921.9301938884097</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N22" t="n">
-        <v>1136.070278545364</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O22" t="n">
-        <v>1541.657620062866</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P22" t="n">
-        <v>1872.28415574375</v>
+        <v>1974.866970118296</v>
       </c>
       <c r="Q22" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R22" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S22" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T22" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U22" t="n">
-        <v>1703.704462790697</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V22" t="n">
-        <v>1429.818717730219</v>
+        <v>2017.543713301499</v>
       </c>
       <c r="W22" t="n">
-        <v>1150.749053239094</v>
+        <v>1738.474048810373</v>
       </c>
       <c r="X22" t="n">
-        <v>912.4051910987771</v>
+        <v>1500.130186670057</v>
       </c>
       <c r="Y22" t="n">
-        <v>687.6694924875418</v>
+        <v>1275.394488058822</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1674.484292639917</v>
+        <v>919.5121753638862</v>
       </c>
       <c r="C23" t="n">
-        <v>1674.484292639917</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D23" t="n">
-        <v>1569.077740205682</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E23" t="n">
-        <v>1154.737524722578</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F23" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G23" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I23" t="n">
         <v>44.64574590746555</v>
@@ -6004,7 +6004,7 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P23" t="n">
         <v>1806.502667397418</v>
@@ -6016,25 +6016,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T23" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="V23" t="n">
-        <v>1674.484292639917</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="W23" t="n">
-        <v>1674.484292639917</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="X23" t="n">
-        <v>1674.484292639917</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="Y23" t="n">
-        <v>1674.484292639917</v>
+        <v>1329.733355028376</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I24" t="n">
-        <v>62.57863487475247</v>
+        <v>43.01083102505506</v>
       </c>
       <c r="J24" t="n">
-        <v>289.181398035784</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K24" t="n">
-        <v>432.9033905670755</v>
+        <v>252.3026566214989</v>
       </c>
       <c r="L24" t="n">
-        <v>644.9159750887328</v>
+        <v>464.3152411431562</v>
       </c>
       <c r="M24" t="n">
-        <v>900.1641928477009</v>
+        <v>719.5634589021244</v>
       </c>
       <c r="N24" t="n">
-        <v>1168.00357260685</v>
+        <v>999.6119288277763</v>
       </c>
       <c r="O24" t="n">
-        <v>1404.02526136083</v>
+        <v>1235.633617581756</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.04491856843</v>
+        <v>1417.231939017939</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W24" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1045.322869217472</v>
+        <v>691.4062897392627</v>
       </c>
       <c r="C25" t="n">
-        <v>874.2294967791881</v>
+        <v>520.3129173009792</v>
       </c>
       <c r="D25" t="n">
-        <v>757.1067645494038</v>
+        <v>520.3129173009792</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F25" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J25" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909251</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168146</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M25" t="n">
-        <v>1266.896543402695</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N25" t="n">
-        <v>1705.830769978742</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O25" t="n">
-        <v>1802.555103535984</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6174,25 +6174,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U25" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="V25" t="n">
-        <v>1750.436102242958</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="W25" t="n">
-        <v>1471.366437751833</v>
+        <v>1342.185556884859</v>
       </c>
       <c r="X25" t="n">
-        <v>1233.022575611516</v>
+        <v>1103.841694744542</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.022575611516</v>
+        <v>879.105996133307</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>855.0749575397381</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="C26" t="n">
-        <v>444.9503668530082</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="D26" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="E26" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="F26" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G26" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H26" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
         <v>372.2593058752964</v>
@@ -6235,7 +6235,7 @@
         <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>1812.402164354919</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U26" t="n">
-        <v>1812.402164354919</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V26" t="n">
-        <v>1812.402164354919</v>
+        <v>1225.826808693858</v>
       </c>
       <c r="W26" t="n">
-        <v>1812.402164354919</v>
+        <v>842.0665078290261</v>
       </c>
       <c r="X26" t="n">
-        <v>1411.758766523871</v>
+        <v>441.4231099979787</v>
       </c>
       <c r="Y26" t="n">
-        <v>1010.822093471961</v>
+        <v>40.48643694606873</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H27" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505506</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J27" t="n">
-        <v>208.7594707336911</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4814632649826</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L27" t="n">
-        <v>564.49404778664</v>
+        <v>564.4940477866402</v>
       </c>
       <c r="M27" t="n">
-        <v>819.742265545608</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N27" t="n">
-        <v>1087.581645304757</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O27" t="n">
         <v>1323.603334058737</v>
@@ -6326,7 +6326,7 @@
         <v>1505.20165549492</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6335,7 +6335,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U27" t="n">
         <v>1588.14395921251</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1087.694781664777</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="C28" t="n">
-        <v>916.6014092264938</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="D28" t="n">
-        <v>757.1067645494038</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1959494177233</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="F28" t="n">
-        <v>431.5648235283147</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H28" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I28" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J28" t="n">
-        <v>62.60916429909251</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K28" t="n">
-        <v>337.1911823108422</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L28" t="n">
-        <v>750.6849613854782</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M28" t="n">
-        <v>856.9288302570733</v>
+        <v>921.9301938884097</v>
       </c>
       <c r="N28" t="n">
-        <v>1295.86305683312</v>
+        <v>1136.070278545365</v>
       </c>
       <c r="O28" t="n">
-        <v>1667.931580268703</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P28" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S28" t="n">
-        <v>2024.321847303436</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.321847303436</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U28" t="n">
-        <v>2024.321847303436</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V28" t="n">
-        <v>2017.543713301499</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W28" t="n">
-        <v>1738.474048810373</v>
+        <v>747.6824273116426</v>
       </c>
       <c r="X28" t="n">
-        <v>1500.130186670057</v>
+        <v>509.338565171326</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.394488058822</v>
+        <v>284.6028665600907</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1276.105369586051</v>
+        <v>1063.576350756031</v>
       </c>
       <c r="C29" t="n">
-        <v>865.9807788993206</v>
+        <v>653.4517600693008</v>
       </c>
       <c r="D29" t="n">
-        <v>461.5168489923811</v>
+        <v>248.9878301623613</v>
       </c>
       <c r="E29" t="n">
-        <v>461.5168489923811</v>
+        <v>248.9878301623613</v>
       </c>
       <c r="F29" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H29" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746557</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752961</v>
       </c>
       <c r="L29" t="n">
         <v>641.1850750879075</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
@@ -6490,25 +6490,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U29" t="n">
-        <v>2009.703225114401</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V29" t="n">
-        <v>1659.865670450882</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="W29" t="n">
-        <v>1276.105369586051</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="X29" t="n">
-        <v>1276.105369586051</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="Y29" t="n">
-        <v>1276.105369586051</v>
+        <v>1473.79753042052</v>
       </c>
     </row>
     <row r="30">
@@ -6518,61 +6518,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579546</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773471</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696751</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521796</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G30" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H30" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I30" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J30" t="n">
-        <v>371.8168719145381</v>
+        <v>128.1484679399048</v>
       </c>
       <c r="K30" t="n">
-        <v>515.5388644458295</v>
+        <v>271.8704604711964</v>
       </c>
       <c r="L30" t="n">
-        <v>727.5514489674867</v>
+        <v>772.8901176787969</v>
       </c>
       <c r="M30" t="n">
-        <v>982.7996667264548</v>
+        <v>1028.138335437765</v>
       </c>
       <c r="N30" t="n">
-        <v>1250.639046485604</v>
+        <v>1295.977715196914</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.660735239583</v>
+        <v>1723.446597132247</v>
       </c>
       <c r="P30" t="n">
-        <v>1668.259056675766</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q30" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T30" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
         <v>1588.14395921251</v>
@@ -6584,10 +6584,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>455.7209611794383</v>
+        <v>821.5513077806971</v>
       </c>
       <c r="C31" t="n">
-        <v>284.6275887411548</v>
+        <v>650.4579353424136</v>
       </c>
       <c r="D31" t="n">
-        <v>125.1329440640648</v>
+        <v>490.9632906653237</v>
       </c>
       <c r="E31" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F31" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G31" t="n">
-        <v>125.1329440640648</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H31" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I31" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J31" t="n">
-        <v>62.6091642990925</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>337.1911823108421</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L31" t="n">
-        <v>750.6849613854781</v>
+        <v>815.6863250168147</v>
       </c>
       <c r="M31" t="n">
-        <v>1201.895179771359</v>
+        <v>921.9301938884099</v>
       </c>
       <c r="N31" t="n">
-        <v>1640.829406347405</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O31" t="n">
-        <v>1731.341988446166</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q31" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S31" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T31" t="n">
-        <v>1942.196289190047</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="U31" t="n">
-        <v>1659.455637876638</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="V31" t="n">
-        <v>1385.56989281616</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="W31" t="n">
-        <v>1106.500228325035</v>
+        <v>1472.330574926293</v>
       </c>
       <c r="X31" t="n">
-        <v>868.156366184718</v>
+        <v>1233.986712785977</v>
       </c>
       <c r="Y31" t="n">
-        <v>643.4206675734827</v>
+        <v>1009.251014174741</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>864.9512431159019</v>
+        <v>856.9893857309148</v>
       </c>
       <c r="C32" t="n">
-        <v>454.826652429172</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="D32" t="n">
-        <v>454.826652429172</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="E32" t="n">
-        <v>40.48643694606872</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606872</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H32" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J32" t="n">
         <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501309</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P32" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q32" t="n">
         <v>1966.084838463273</v>
@@ -6730,22 +6730,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1873.920617718689</v>
       </c>
       <c r="U32" t="n">
-        <v>2024.321847303436</v>
+        <v>1617.048120058924</v>
       </c>
       <c r="V32" t="n">
-        <v>2024.321847303436</v>
+        <v>1267.210565395404</v>
       </c>
       <c r="W32" t="n">
-        <v>2024.321847303436</v>
+        <v>1267.210565395404</v>
       </c>
       <c r="X32" t="n">
-        <v>1676.109095832301</v>
+        <v>1267.210565395404</v>
       </c>
       <c r="Y32" t="n">
-        <v>1275.172422780391</v>
+        <v>1267.210565395404</v>
       </c>
     </row>
     <row r="33">
@@ -6767,55 +6767,55 @@
         <v>313.7832447696753</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H33" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505506</v>
+        <v>43.01083102505508</v>
       </c>
       <c r="J33" t="n">
-        <v>352.2490680648406</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K33" t="n">
-        <v>495.9710605961321</v>
+        <v>752.3247263384928</v>
       </c>
       <c r="L33" t="n">
-        <v>707.9836451177895</v>
+        <v>964.3373108601502</v>
       </c>
       <c r="M33" t="n">
-        <v>1131.615812142137</v>
+        <v>1219.585528619118</v>
       </c>
       <c r="N33" t="n">
-        <v>1399.455191901286</v>
+        <v>1487.424908378268</v>
       </c>
       <c r="O33" t="n">
-        <v>1635.476880655266</v>
+        <v>1723.446597132247</v>
       </c>
       <c r="P33" t="n">
-        <v>1817.075202091449</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q33" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T33" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U33" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W33" t="n">
         <v>1161.199263941873</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1087.694781664777</v>
+        <v>509.3385651713258</v>
       </c>
       <c r="C34" t="n">
-        <v>916.6014092264938</v>
+        <v>509.3385651713258</v>
       </c>
       <c r="D34" t="n">
-        <v>757.1067645494038</v>
+        <v>349.8439204942358</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>188.9331053625553</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>188.9331053625553</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>188.9331053625553</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>48.69752106419355</v>
       </c>
       <c r="I34" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J34" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909253</v>
       </c>
       <c r="K34" t="n">
-        <v>337.1911823108422</v>
+        <v>130.9109887251281</v>
       </c>
       <c r="L34" t="n">
-        <v>436.7058501504552</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M34" t="n">
-        <v>887.9160685363358</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N34" t="n">
-        <v>1326.850295112382</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O34" t="n">
-        <v>1732.437636629884</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P34" t="n">
         <v>1998.558115949588</v>
@@ -6885,25 +6885,25 @@
         <v>1986.445114104106</v>
       </c>
       <c r="S34" t="n">
-        <v>1818.423362863341</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T34" t="n">
-        <v>1818.423362863341</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U34" t="n">
-        <v>1818.423362863341</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V34" t="n">
-        <v>1818.423362863341</v>
+        <v>1026.752091802768</v>
       </c>
       <c r="W34" t="n">
-        <v>1738.474048810373</v>
+        <v>747.6824273116424</v>
       </c>
       <c r="X34" t="n">
-        <v>1500.130186670057</v>
+        <v>509.3385651713258</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.394488058822</v>
+        <v>509.3385651713258</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1623.678449472389</v>
+        <v>1213.163994587037</v>
       </c>
       <c r="C35" t="n">
-        <v>1623.678449472389</v>
+        <v>803.0394039003073</v>
       </c>
       <c r="D35" t="n">
-        <v>1219.214519565449</v>
+        <v>398.5754739933678</v>
       </c>
       <c r="E35" t="n">
-        <v>804.8743040823458</v>
+        <v>398.5754739933678</v>
       </c>
       <c r="F35" t="n">
-        <v>383.8438920360334</v>
+        <v>398.5754739933678</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H35" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746558</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879078</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P35" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q35" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463274</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="X35" t="n">
-        <v>1623.678449472389</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="Y35" t="n">
-        <v>1623.678449472389</v>
+        <v>1623.385174251527</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C36" t="n">
         <v>551.1732185579548</v>
@@ -7007,34 +7007,34 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H36" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505506</v>
+        <v>43.01083102505509</v>
       </c>
       <c r="J36" t="n">
         <v>108.5806640902074</v>
       </c>
       <c r="K36" t="n">
-        <v>252.3026566214989</v>
+        <v>609.600321297808</v>
       </c>
       <c r="L36" t="n">
-        <v>564.49404778664</v>
+        <v>821.6129058194654</v>
       </c>
       <c r="M36" t="n">
-        <v>819.742265545608</v>
+        <v>1076.861123578434</v>
       </c>
       <c r="N36" t="n">
-        <v>1087.581645304757</v>
+        <v>1344.700503337583</v>
       </c>
       <c r="O36" t="n">
-        <v>1323.603334058737</v>
+        <v>1580.722192091562</v>
       </c>
       <c r="P36" t="n">
-        <v>1505.20165549492</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
@@ -7046,7 +7046,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T36" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U36" t="n">
         <v>1588.14395921251</v>
@@ -7058,10 +7058,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>820.5871706062361</v>
+        <v>537.8465192928282</v>
       </c>
       <c r="C37" t="n">
-        <v>649.4937981679526</v>
+        <v>366.7531468545448</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9991534908626</v>
+        <v>366.7531468545448</v>
       </c>
       <c r="E37" t="n">
-        <v>329.0883383591821</v>
+        <v>366.7531468545448</v>
       </c>
       <c r="F37" t="n">
-        <v>164.4572124697734</v>
+        <v>206.6827321119569</v>
       </c>
       <c r="G37" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H37" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I37" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="J37" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909254</v>
       </c>
       <c r="K37" t="n">
-        <v>130.910988725128</v>
+        <v>130.9109887251281</v>
       </c>
       <c r="L37" t="n">
-        <v>372.1997937892743</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M37" t="n">
-        <v>823.4100121751549</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N37" t="n">
-        <v>1262.344238751201</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.931580268703</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P37" t="n">
         <v>1998.558115949588</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="R37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="U37" t="n">
-        <v>2024.321847303436</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V37" t="n">
-        <v>1750.436102242958</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W37" t="n">
-        <v>1471.366437751832</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X37" t="n">
-        <v>1233.022575611516</v>
+        <v>950.2819242981079</v>
       </c>
       <c r="Y37" t="n">
-        <v>1008.28687700028</v>
+        <v>725.5462256868726</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1213.163994587037</v>
+        <v>1261.453315637854</v>
       </c>
       <c r="C38" t="n">
-        <v>803.0394039003069</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D38" t="n">
-        <v>398.5754739933674</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5754739933674</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="F38" t="n">
-        <v>398.5754739933674</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H38" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746558</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492898</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501305</v>
+        <v>953.242931950131</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O38" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P38" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q38" t="n">
         <v>1966.084838463273</v>
       </c>
       <c r="R38" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>2012.227543353284</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>2012.227543353284</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303436</v>
+        <v>2012.227543353284</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303436</v>
+        <v>1662.389988689764</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.321847303436</v>
+        <v>1662.389988689764</v>
       </c>
       <c r="X38" t="n">
-        <v>2024.321847303436</v>
+        <v>1662.389988689764</v>
       </c>
       <c r="Y38" t="n">
-        <v>1623.385174251526</v>
+        <v>1261.453315637854</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090097</v>
       </c>
       <c r="C39" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579554</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773478</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696758</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521804</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692753</v>
+        <v>99.0905735269282</v>
       </c>
       <c r="H39" t="n">
-        <v>40.48643694606873</v>
+        <v>40.4864369460693</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475305</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145386</v>
       </c>
       <c r="K39" t="n">
-        <v>252.3026566214989</v>
+        <v>664.3550098615121</v>
       </c>
       <c r="L39" t="n">
-        <v>753.3223138290994</v>
+        <v>876.3675943831695</v>
       </c>
       <c r="M39" t="n">
-        <v>1008.570531588067</v>
+        <v>1131.615812142138</v>
       </c>
       <c r="N39" t="n">
-        <v>1276.409911347217</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O39" t="n">
-        <v>1512.431600101196</v>
+        <v>1635.476880655267</v>
       </c>
       <c r="P39" t="n">
-        <v>1694.029921537379</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q39" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R39" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T39" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W39" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941874</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807663</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445964</v>
       </c>
     </row>
     <row r="40">
@@ -7308,67 +7308,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>820.5871706062363</v>
+        <v>820.5871706062368</v>
       </c>
       <c r="C40" t="n">
-        <v>649.4937981679528</v>
+        <v>649.4937981679533</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9991534908629</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E40" t="n">
-        <v>329.0883383591823</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F40" t="n">
-        <v>164.4572124697736</v>
+        <v>206.6827321119569</v>
       </c>
       <c r="G40" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H40" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I40" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="J40" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>130.910988725128</v>
+        <v>219.6034981877568</v>
       </c>
       <c r="L40" t="n">
-        <v>372.1997937892745</v>
+        <v>633.0972772623929</v>
       </c>
       <c r="M40" t="n">
-        <v>823.4100121751551</v>
+        <v>1084.307495648274</v>
       </c>
       <c r="N40" t="n">
-        <v>1262.344238751201</v>
+        <v>1523.24172222432</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.931580268703</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P40" t="n">
         <v>1998.558115949588</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="R40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="U40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="V40" t="n">
-        <v>1750.436102242958</v>
+        <v>1750.436102242959</v>
       </c>
       <c r="W40" t="n">
         <v>1471.366437751833</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>454.826652429172</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="C41" t="n">
-        <v>454.826652429172</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D41" t="n">
-        <v>454.826652429172</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E41" t="n">
-        <v>40.48643694606872</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F41" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746558</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492899</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879082</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501314</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q41" t="n">
         <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="U41" t="n">
-        <v>1990.00457884048</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="V41" t="n">
-        <v>1640.167024176961</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="W41" t="n">
-        <v>1256.406723312129</v>
+        <v>1686.721641971021</v>
       </c>
       <c r="X41" t="n">
-        <v>855.7633254810819</v>
+        <v>1286.078244139974</v>
       </c>
       <c r="Y41" t="n">
-        <v>454.826652429172</v>
+        <v>1286.078244139974</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090097</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579554</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773478</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696758</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521804</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.0905735269282</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I42" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J42" t="n">
-        <v>371.8168719145381</v>
+        <v>128.1484679399048</v>
       </c>
       <c r="K42" t="n">
-        <v>515.5388644458296</v>
+        <v>271.8704604711964</v>
       </c>
       <c r="L42" t="n">
-        <v>727.551448967487</v>
+        <v>556.9462586117518</v>
       </c>
       <c r="M42" t="n">
-        <v>982.799666726455</v>
+        <v>812.1944763707199</v>
       </c>
       <c r="N42" t="n">
-        <v>1250.639046485604</v>
+        <v>1080.033856129869</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.660735239584</v>
+        <v>1316.055544883849</v>
       </c>
       <c r="P42" t="n">
-        <v>1668.259056675767</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R42" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T42" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W42" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941874</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807663</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445964</v>
       </c>
     </row>
     <row r="43">
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>691.7193178101361</v>
+        <v>134.7798933653768</v>
       </c>
       <c r="C43" t="n">
-        <v>691.7193178101361</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="D43" t="n">
-        <v>532.2246731330461</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="E43" t="n">
-        <v>371.3138580013656</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="F43" t="n">
-        <v>206.6827321119568</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="J43" t="n">
-        <v>62.60916429909251</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>272.6851259496613</v>
+        <v>219.6034981877568</v>
       </c>
       <c r="L43" t="n">
-        <v>372.1997937892743</v>
+        <v>633.0972772623929</v>
       </c>
       <c r="M43" t="n">
-        <v>823.4100121751549</v>
+        <v>1084.307495648274</v>
       </c>
       <c r="N43" t="n">
-        <v>1262.344238751201</v>
+        <v>1523.24172222432</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.931580268703</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P43" t="n">
         <v>1998.558115949588</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="R43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S43" t="n">
         <v>1856.300096062672</v>
@@ -7602,19 +7602,19 @@
         <v>1621.255221375985</v>
       </c>
       <c r="U43" t="n">
-        <v>1391.648631404975</v>
+        <v>1338.514570062577</v>
       </c>
       <c r="V43" t="n">
-        <v>1117.762886344497</v>
+        <v>1064.628825002099</v>
       </c>
       <c r="W43" t="n">
-        <v>1117.762886344497</v>
+        <v>785.559160510973</v>
       </c>
       <c r="X43" t="n">
-        <v>879.4190242041805</v>
+        <v>547.2152983706565</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.4190242041805</v>
+        <v>322.4795997594211</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1690.445585069154</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C44" t="n">
-        <v>1280.320994382424</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D44" t="n">
-        <v>875.8570644754844</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5168489923811</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746534</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492897</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
         <v>641.1850750879078</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q44" t="n">
         <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="T44" t="n">
-        <v>2024.321847303436</v>
+        <v>1953.07533248647</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="X44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.321847303436</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505509</v>
       </c>
       <c r="J45" t="n">
-        <v>128.1484679399048</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K45" t="n">
-        <v>271.8704604711963</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L45" t="n">
-        <v>483.8830449928536</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M45" t="n">
-        <v>739.1312627518217</v>
+        <v>963.2318628767578</v>
       </c>
       <c r="N45" t="n">
-        <v>1240.150919959422</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O45" t="n">
-        <v>1476.172608713402</v>
+        <v>1467.092931389887</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.770930149585</v>
+        <v>1648.69125282607</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.251596225539</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>537.8465192928276</v>
+        <v>211.5798093843522</v>
       </c>
       <c r="C46" t="n">
-        <v>366.7531468545441</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="D46" t="n">
-        <v>366.7531468545441</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="E46" t="n">
-        <v>366.7531468545441</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="F46" t="n">
-        <v>202.1220209651353</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909254</v>
       </c>
       <c r="K46" t="n">
-        <v>130.910988725128</v>
+        <v>130.9109887251281</v>
       </c>
       <c r="L46" t="n">
-        <v>372.1997937892743</v>
+        <v>544.4047677997642</v>
       </c>
       <c r="M46" t="n">
-        <v>823.4100121751549</v>
+        <v>995.6149861856447</v>
       </c>
       <c r="N46" t="n">
-        <v>1262.344238751201</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.931580268703</v>
+        <v>1840.136554279193</v>
       </c>
       <c r="P46" t="n">
         <v>1998.558115949588</v>
       </c>
       <c r="Q46" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="R46" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1933.100012081648</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.321847303436</v>
+        <v>1698.055137394961</v>
       </c>
       <c r="U46" t="n">
-        <v>1741.581195990027</v>
+        <v>1415.314486081552</v>
       </c>
       <c r="V46" t="n">
-        <v>1467.695450929549</v>
+        <v>1141.428741021074</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.625786438424</v>
+        <v>862.3590765299487</v>
       </c>
       <c r="X46" t="n">
-        <v>950.2819242981072</v>
+        <v>624.015214389632</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.5462256868719</v>
+        <v>399.2795157783967</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +8458,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L8" t="n">
-        <v>35.16270217958865</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M8" t="n">
-        <v>26.16960234776165</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N8" t="n">
         <v>24.70558680915735</v>
@@ -8470,7 +8470,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P8" t="n">
-        <v>38.68062560122958</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q8" t="n">
         <v>48.7545716309821</v>
@@ -8540,7 +8540,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M9" t="n">
-        <v>5.742459823057359</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226668</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.11334984944294</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>81.66010830944106</v>
@@ -8856,19 +8856,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>69.42275263851184</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>57.82753515371935</v>
+        <v>75.40501809286228</v>
       </c>
       <c r="P13" t="n">
         <v>83.28144447453252</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81784642339689</v>
+        <v>37.11852291025284</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174886</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226668</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952759</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.11334984944293</v>
+        <v>23.11334984944295</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081541</v>
+        <v>5.712245507081569</v>
       </c>
       <c r="L16" t="n">
-        <v>71.023380425043</v>
+        <v>71.02338042504286</v>
       </c>
       <c r="M16" t="n">
-        <v>65.81130741174769</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>66.36346275780026</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>56.22690736718828</v>
       </c>
       <c r="P16" t="n">
-        <v>83.28144447453263</v>
+        <v>83.28144447453249</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81784642339688</v>
+        <v>103.7657092257564</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>239.1776382754174</v>
+        <v>258.9430967094554</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
@@ -9333,10 +9333,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>78.12986811408963</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>143.7878111760458</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>124.4006072636238</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>360.9067319962716</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.862448297901039</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>235.5356337863144</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>267.6747156097182</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>108.323393463125</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>23.93045033463874</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>162.6595253493729</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>12.33241430959868</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>322.6478139105228</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9810,13 +9810,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>6.274496422708438</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>89.58839339659416</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1907137812967</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>403.8820839126365</v>
+        <v>403.8820839126367</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
@@ -10044,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>108.3233934631254</v>
       </c>
       <c r="O28" t="n">
-        <v>284.3999407442648</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>291.9263360464071</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>193.3810032134884</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.3193388037198</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>208.3638319047618</v>
@@ -10278,19 +10278,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>108.3233934631249</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>199.4818942380352</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>258.9430967094551</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>170.084797237757</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>198.3751789009465</v>
+        <v>89.58839339659437</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>360.9067319962717</v>
       </c>
       <c r="L36" t="n">
-        <v>101.1907137812967</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>144.1660656976609</v>
       </c>
       <c r="Q36" t="n">
-        <v>403.8820839126365</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>143.2061992167002</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659482</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="L39" t="n">
-        <v>291.9263360464072</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.2881621758282</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>23.93045033463875</v>
       </c>
       <c r="L40" t="n">
-        <v>143.2061992167005</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>73.80122587767471</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>322.6478139105228</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.3193388037191</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>143.2061992167002</v>
+        <v>23.93045033463875</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>160.9134060018829</v>
+        <v>170.0847972377566</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>143.2061992167002</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11472,7 +11472,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659482</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330.1711050654851</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>330.075481977503</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23269,7 +23269,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>340.8722451234898</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>403.7480150306399</v>
@@ -23278,7 +23278,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367295</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>216.0753719669003</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4184479242485</v>
+        <v>178.470585121889</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145246</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>313.0278202998649</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>320.6891010503775</v>
       </c>
       <c r="Y11" t="n">
-        <v>330.0324287650726</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>39.780323400442</v>
       </c>
       <c r="E12" t="n">
-        <v>43.34002504523579</v>
+        <v>52.39301029127709</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696098</v>
       </c>
       <c r="G12" t="n">
         <v>105.4424218008434</v>
@@ -23357,7 +23357,7 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.090887922119286</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725505</v>
       </c>
       <c r="T12" t="n">
-        <v>93.01862752502066</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U12" t="n">
         <v>195.3458692164555</v>
@@ -23402,10 +23402,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>98.61485924013662</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.86007723744878</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>91.00482067400088</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S13" t="n">
-        <v>101.5992690287315</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T13" t="n">
-        <v>159.4938928757419</v>
+        <v>159.493892875742</v>
       </c>
       <c r="U13" t="n">
-        <v>204.0004542924461</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075138</v>
       </c>
       <c r="W13" t="n">
-        <v>275.7933176158264</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>160.012560716554</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.2854835251992</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234898</v>
       </c>
       <c r="G14" t="n">
-        <v>403.7480150306399</v>
+        <v>336.8531374743217</v>
       </c>
       <c r="H14" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.06139321367295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.63147781102266</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T14" t="n">
-        <v>140.1275091645407</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4184479242485</v>
+        <v>178.470585121889</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145247</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>320.9794435190312</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>114.2586062923929</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696101</v>
       </c>
       <c r="G15" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848392</v>
       </c>
       <c r="H15" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.090887922119276</v>
+        <v>4.090887922119286</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>31.1404970332962</v>
+        <v>22.08751178725508</v>
       </c>
       <c r="T15" t="n">
         <v>155.8226171592196</v>
@@ -23633,13 +23633,13 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V15" t="n">
-        <v>135.6265489345369</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>135.1529737786749</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>98.6148592401365</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.3370590997159</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>101.5992690287314</v>
+        <v>101.5992690287316</v>
       </c>
       <c r="T16" t="n">
-        <v>159.4938928757418</v>
+        <v>159.493892875742</v>
       </c>
       <c r="U16" t="n">
-        <v>204.000454292446</v>
+        <v>204.0004542924462</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>270.6612373794854</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>104.6304913626213</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.4043121301076</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>8.040440024579169</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>11.22684974364297</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>23.8464788783445</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>296.0668036979774</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.4953703154452</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S22" t="n">
         <v>166.3415337283568</v>
@@ -24183,10 +24183,10 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>264.4365349479553</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>362.8047850003449</v>
       </c>
       <c r="D23" t="n">
-        <v>296.0668036979772</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>41.94819332283259</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>11.79263827374629</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.9293032949434</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>100.848164607488</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.94748605903834</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>264.4365349479557</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>210.4037286417197</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>239.8313367160237</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>100.4972245147248</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>151.390123407565</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>60.90326883013265</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>51.90633989631345</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.67106876987258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>197.129146933776</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>62.39069397806992</v>
+        <v>47.80642784030886</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4.515104035352635</v>
       </c>
       <c r="G37" t="n">
-        <v>41.80326444576161</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
@@ -25368,7 +25368,7 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>47.80642784030931</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>68.94145400123523</v>
       </c>
       <c r="T38" t="n">
         <v>209.8004861190321</v>
@@ -25450,7 +25450,7 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>41.80326444576092</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.8032644457614</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.8332284553781</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S40" t="n">
         <v>166.3415337283568</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.3145745171349</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T41" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>220.3296769048416</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>45.69849457709199</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>76.03191685878572</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
         <v>138.8332284553781</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.60272072897496</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>75.58146825590524</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>139.2664364502346</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -26034,10 +26034,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>4.515104035353261</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
         <v>138.8332284553781</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>76.03191685878589</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>202945.8746485225</v>
+        <v>202945.8746485224</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>557832.2634008345</v>
+        <v>557832.2634008346</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>557832.2634008344</v>
+        <v>557832.2634008348</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>557832.2634008348</v>
+        <v>557832.2634008345</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>557832.2634008345</v>
+        <v>557832.2634008348</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>557832.2634008345</v>
+        <v>557832.2634008346</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>557832.2634008345</v>
+        <v>557832.2634008348</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557832.2634008348</v>
+        <v>557832.2634008345</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557832.2634008346</v>
+        <v>557832.2634008348</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>38801.81820547023</v>
       </c>
       <c r="C2" t="n">
-        <v>38801.81820547025</v>
+        <v>38801.81820547023</v>
       </c>
       <c r="D2" t="n">
-        <v>40150.10032260045</v>
+        <v>40150.10032260042</v>
       </c>
       <c r="E2" t="n">
-        <v>59164.2681590478</v>
+        <v>59164.26815904779</v>
       </c>
       <c r="F2" t="n">
-        <v>59164.2681590478</v>
+        <v>59164.26815904781</v>
       </c>
       <c r="G2" t="n">
         <v>161192.7346476189</v>
@@ -26334,25 +26334,25 @@
         <v>161192.7346476189</v>
       </c>
       <c r="I2" t="n">
+        <v>161192.734647619</v>
+      </c>
+      <c r="J2" t="n">
+        <v>161192.734647619</v>
+      </c>
+      <c r="K2" t="n">
         <v>161192.7346476189</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>161192.7346476189</v>
       </c>
-      <c r="K2" t="n">
-        <v>161192.734647619</v>
-      </c>
-      <c r="L2" t="n">
-        <v>161192.734647619</v>
-      </c>
       <c r="M2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="N2" t="n">
         <v>161192.734647619</v>
       </c>
       <c r="O2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="P2" t="n">
         <v>161192.734647619</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>395120.1328285697</v>
+        <v>395120.1328285699</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.51120179919</v>
+        <v>18926.51120179922</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>103511.8400876041</v>
+        <v>103511.8400876042</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>3332.327916037651</v>
       </c>
       <c r="F4" t="n">
-        <v>3332.327916037652</v>
+        <v>3332.327916037651</v>
       </c>
       <c r="G4" t="n">
         <v>14245.6324043818</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.63240438179</v>
+        <v>14245.6324043818</v>
       </c>
       <c r="I4" t="n">
         <v>14245.6324043818</v>
       </c>
       <c r="J4" t="n">
-        <v>14245.63240438179</v>
+        <v>14245.6324043818</v>
       </c>
       <c r="K4" t="n">
         <v>14245.6324043818</v>
       </c>
       <c r="L4" t="n">
-        <v>14245.63240438179</v>
+        <v>14245.6324043818</v>
       </c>
       <c r="M4" t="n">
         <v>14245.63240438179</v>
@@ -26456,7 +26456,7 @@
         <v>14245.6324043818</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.63240438179</v>
+        <v>14245.6324043818</v>
       </c>
       <c r="P4" t="n">
         <v>14245.63240438179</v>
@@ -26478,40 +26478,40 @@
         <v>35700.4729566144</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703488</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703499</v>
+        <v>9460.071166703488</v>
       </c>
       <c r="G5" t="n">
+        <v>43385.32273194158</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43385.32273194158</v>
+      </c>
+      <c r="I5" t="n">
         <v>43385.32273194157</v>
       </c>
-      <c r="H5" t="n">
-        <v>43385.32273194157</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>43385.32273194158</v>
       </c>
-      <c r="J5" t="n">
-        <v>43385.32273194157</v>
-      </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="L5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194159</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194159</v>
       </c>
       <c r="O5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194159</v>
       </c>
       <c r="P5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194159</v>
       </c>
     </row>
     <row r="6">
@@ -26524,25 +26524,25 @@
         <v>-19076.91817294867</v>
       </c>
       <c r="C6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-19076.91817294867</v>
       </c>
       <c r="D6" t="n">
-        <v>-87553.05451863131</v>
+        <v>-87553.05451863132</v>
       </c>
       <c r="E6" t="n">
-        <v>-78372.3525358246</v>
+        <v>-78372.35253582461</v>
       </c>
       <c r="F6" t="n">
-        <v>46371.86907630664</v>
+        <v>46371.86907630667</v>
       </c>
       <c r="G6" t="n">
-        <v>-291558.3533172741</v>
+        <v>-291558.3533172744</v>
       </c>
       <c r="H6" t="n">
         <v>103561.7795112955</v>
       </c>
       <c r="I6" t="n">
-        <v>103561.7795112956</v>
+        <v>103561.7795112957</v>
       </c>
       <c r="J6" t="n">
         <v>103561.7795112956</v>
@@ -26551,16 +26551,16 @@
         <v>103561.7795112956</v>
       </c>
       <c r="L6" t="n">
-        <v>103561.7795112957</v>
+        <v>103561.7795112955</v>
       </c>
       <c r="M6" t="n">
-        <v>84635.26830949642</v>
+        <v>84635.26830949631</v>
       </c>
       <c r="N6" t="n">
         <v>103561.7795112956</v>
       </c>
       <c r="O6" t="n">
-        <v>49.93942369148135</v>
+        <v>49.93942369127763</v>
       </c>
       <c r="P6" t="n">
         <v>103561.7795112956</v>
@@ -26749,10 +26749,10 @@
         <v>222.1303260697263</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697263</v>
       </c>
       <c r="G3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="H3" t="n">
         <v>578.6986538040985</v>
@@ -26764,22 +26764,22 @@
         <v>578.6986538040985</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6986538040984</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="L3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="M3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="N3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="O3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="F4" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="G4" t="n">
+        <v>506.0804618258591</v>
+      </c>
+      <c r="H4" t="n">
+        <v>506.0804618258591</v>
+      </c>
+      <c r="I4" t="n">
         <v>506.080461825859</v>
       </c>
-      <c r="H4" t="n">
-        <v>506.080461825859</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>506.0804618258591</v>
       </c>
-      <c r="J4" t="n">
-        <v>506.080461825859</v>
-      </c>
       <c r="K4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="L4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="M4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258592</v>
       </c>
       <c r="N4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.0804618258592</v>
       </c>
       <c r="O4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258592</v>
       </c>
       <c r="P4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258592</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5683277343721</v>
+        <v>356.5683277343724</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>430.1325990234994</v>
+        <v>430.1325990234997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>430.1325990234993</v>
+        <v>430.1325990234997</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>430.1325990234994</v>
+        <v>430.1325990234997</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.382254936446342</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H8" t="n">
-        <v>3.914768367881101</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I8" t="n">
-        <v>14.73688343734761</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J8" t="n">
         <v>32.44340991221275</v>
@@ -31530,10 +31530,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L8" t="n">
-        <v>60.32269588325617</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M8" t="n">
-        <v>67.1206221092838</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N8" t="n">
         <v>68.20670394746197</v>
@@ -31542,7 +31542,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P8" t="n">
-        <v>54.96873767965458</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q8" t="n">
         <v>41.27923276816995</v>
@@ -31557,7 +31557,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03058039491570736</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2045244218920217</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H9" t="n">
         <v>1.975275337746631</v>
@@ -31612,7 +31612,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M9" t="n">
-        <v>51.82182391536006</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -31633,7 +31633,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8243769461349469</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U9" t="n">
         <v>0.01345555407184354</v>
@@ -31697,16 +31697,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O10" t="n">
-        <v>24.23599693896882</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P10" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.35797323159517</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R10" t="n">
-        <v>7.709753078218403</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S10" t="n">
         <v>2.98819180164672</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561853</v>
       </c>
       <c r="H11" t="n">
         <v>9.145295283865661</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242462</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154948</v>
       </c>
       <c r="K11" t="n">
         <v>113.5911978484098</v>
@@ -31782,19 +31782,19 @@
         <v>128.4125368913939</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411921</v>
+        <v>96.4324673341192</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297465</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709453</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.0714388988364948</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.477789757961298</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731484</v>
       </c>
       <c r="I12" t="n">
         <v>16.45021754384294</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177334</v>
       </c>
       <c r="K12" t="n">
-        <v>77.15256806518032</v>
+        <v>77.1525680651803</v>
       </c>
       <c r="L12" t="n">
         <v>103.7411489819038</v>
@@ -31852,7 +31852,7 @@
         <v>121.0610277080008</v>
       </c>
       <c r="N12" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O12" t="n">
         <v>113.6783377198532</v>
@@ -31861,7 +31861,7 @@
         <v>91.23688807946928</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993692</v>
       </c>
       <c r="R12" t="n">
         <v>29.6648763758778</v>
@@ -31873,7 +31873,7 @@
         <v>1.925828015642249</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765555</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626105</v>
       </c>
       <c r="I13" t="n">
         <v>12.0460183383386</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K13" t="n">
         <v>46.53812405198526</v>
       </c>
       <c r="L13" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121809</v>
       </c>
       <c r="M13" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262769</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297876</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249352</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773175</v>
       </c>
       <c r="Q13" t="n">
         <v>33.54167923652867</v>
@@ -31946,7 +31946,7 @@
         <v>18.01076381542403</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797788</v>
       </c>
       <c r="T13" t="n">
         <v>1.711495954963464</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561853</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865661</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242462</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154948</v>
       </c>
       <c r="K14" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L14" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N14" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P14" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411927</v>
+        <v>96.4324673341192</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297465</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709453</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.0714388988364948</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.477789757961298</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731484</v>
       </c>
       <c r="I15" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177334</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518036</v>
+        <v>77.1525680651803</v>
       </c>
       <c r="L15" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M15" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N15" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O15" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946928</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993692</v>
       </c>
       <c r="R15" t="n">
-        <v>29.66487637587781</v>
+        <v>29.6648763758778</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219719</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642249</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765555</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626105</v>
       </c>
       <c r="I16" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198526</v>
       </c>
       <c r="L16" t="n">
-        <v>59.55277627121813</v>
+        <v>59.55277627121809</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262773</v>
+        <v>62.79005266262769</v>
       </c>
       <c r="N16" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297876</v>
       </c>
       <c r="O16" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249352</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773175</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652867</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797788</v>
       </c>
       <c r="T16" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H17" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I17" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J17" t="n">
         <v>197.4525622846457</v>
@@ -32241,16 +32241,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L17" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M17" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N17" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O17" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P17" t="n">
         <v>334.5430745340568</v>
@@ -32262,7 +32262,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S17" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T17" t="n">
         <v>10.18393309357765</v>
@@ -32308,10 +32308,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H18" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I18" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J18" t="n">
         <v>117.601393411265</v>
@@ -32320,34 +32320,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L18" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M18" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N18" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O18" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P18" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q18" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R18" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S18" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T18" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H19" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I19" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J19" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K19" t="n">
         <v>121.2421114035472</v>
@@ -32402,10 +32402,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M19" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N19" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O19" t="n">
         <v>147.5017486778054</v>
@@ -32414,19 +32414,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R19" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S19" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T19" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H29" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I29" t="n">
-        <v>89.68956723932666</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J29" t="n">
-        <v>197.4525622846456</v>
+        <v>197.4525622846457</v>
       </c>
       <c r="K29" t="n">
-        <v>295.9302065681732</v>
+        <v>295.9302065681733</v>
       </c>
       <c r="L29" t="n">
-        <v>367.1275891866945</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M29" t="n">
-        <v>408.5001808835332</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N29" t="n">
-        <v>415.1101408840192</v>
+        <v>415.1101408840194</v>
       </c>
       <c r="O29" t="n">
-        <v>391.9767348990363</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P29" t="n">
-        <v>334.5430745340567</v>
+        <v>334.5430745340568</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.2279165868837</v>
+        <v>251.2279165868838</v>
       </c>
       <c r="R29" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S29" t="n">
-        <v>53.01344954195335</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T29" t="n">
         <v>10.18393309357765</v>
@@ -33256,10 +33256,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H30" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I30" t="n">
-        <v>42.8564569090771</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J30" t="n">
         <v>117.601393411265</v>
@@ -33268,34 +33268,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L30" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3907663232336</v>
+        <v>315.3907663232337</v>
       </c>
       <c r="N30" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O30" t="n">
-        <v>296.1572252161408</v>
+        <v>296.1572252161409</v>
       </c>
       <c r="P30" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.8909964180611</v>
+        <v>158.8909964180612</v>
       </c>
       <c r="R30" t="n">
-        <v>77.28356738915868</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S30" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T30" t="n">
-        <v>5.017208140056285</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08189131893454227</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H31" t="n">
-        <v>9.278152187219813</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I31" t="n">
-        <v>31.38254338990095</v>
+        <v>31.38254338990096</v>
       </c>
       <c r="J31" t="n">
-        <v>73.77933492843398</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K31" t="n">
-        <v>121.2421114035471</v>
+        <v>121.2421114035472</v>
       </c>
       <c r="L31" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M31" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N31" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O31" t="n">
-        <v>147.5017486778053</v>
+        <v>147.5017486778054</v>
       </c>
       <c r="P31" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.38349672441886</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R31" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S31" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T31" t="n">
-        <v>4.458825693244691</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H32" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I32" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J32" t="n">
         <v>197.4525622846457</v>
@@ -33426,16 +33426,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L32" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M32" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N32" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O32" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P32" t="n">
         <v>334.5430745340568</v>
@@ -33447,7 +33447,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S32" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T32" t="n">
         <v>10.18393309357765</v>
@@ -33493,10 +33493,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H33" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I33" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J33" t="n">
         <v>117.601393411265</v>
@@ -33505,34 +33505,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L33" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M33" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N33" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O33" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P33" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q33" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R33" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S33" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T33" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H34" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I34" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J34" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K34" t="n">
         <v>121.2421114035472</v>
@@ -33587,10 +33587,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M34" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N34" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O34" t="n">
         <v>147.5017486778054</v>
@@ -33599,19 +33599,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R34" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S34" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T34" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H35" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I35" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J35" t="n">
         <v>197.4525622846457</v>
@@ -33663,16 +33663,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L35" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M35" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N35" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O35" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P35" t="n">
         <v>334.5430745340568</v>
@@ -33684,7 +33684,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S35" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T35" t="n">
         <v>10.18393309357765</v>
@@ -33730,10 +33730,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H36" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I36" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J36" t="n">
         <v>117.601393411265</v>
@@ -33742,34 +33742,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L36" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M36" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N36" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O36" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P36" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q36" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R36" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S36" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T36" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H37" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I37" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J37" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K37" t="n">
         <v>121.2421114035472</v>
@@ -33824,10 +33824,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M37" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N37" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O37" t="n">
         <v>147.5017486778054</v>
@@ -33836,19 +33836,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S37" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T37" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H38" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I38" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J38" t="n">
         <v>197.4525622846457</v>
@@ -33900,16 +33900,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L38" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M38" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N38" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O38" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P38" t="n">
         <v>334.5430745340568</v>
@@ -33921,7 +33921,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S38" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T38" t="n">
         <v>10.18393309357765</v>
@@ -33967,10 +33967,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H39" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I39" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J39" t="n">
         <v>117.601393411265</v>
@@ -33979,34 +33979,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L39" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M39" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N39" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O39" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P39" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q39" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R39" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S39" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T39" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H40" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I40" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J40" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K40" t="n">
         <v>121.2421114035472</v>
@@ -34061,10 +34061,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M40" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N40" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O40" t="n">
         <v>147.5017486778054</v>
@@ -34073,19 +34073,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R40" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S40" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T40" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H41" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I41" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J41" t="n">
         <v>197.4525622846457</v>
@@ -34137,16 +34137,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L41" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M41" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N41" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O41" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P41" t="n">
         <v>334.5430745340568</v>
@@ -34158,7 +34158,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S41" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T41" t="n">
         <v>10.18393309357765</v>
@@ -34204,10 +34204,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H42" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I42" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J42" t="n">
         <v>117.601393411265</v>
@@ -34216,34 +34216,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L42" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M42" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N42" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O42" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P42" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q42" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R42" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S42" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T42" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H43" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I43" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J43" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K43" t="n">
         <v>121.2421114035472</v>
@@ -34298,10 +34298,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M43" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N43" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O43" t="n">
         <v>147.5017486778054</v>
@@ -34310,19 +34310,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R43" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S43" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T43" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J44" t="n">
         <v>197.4525622846457</v>
@@ -34374,16 +34374,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N44" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P44" t="n">
         <v>334.5430745340568</v>
@@ -34395,7 +34395,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M45" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O45" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q45" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I46" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K46" t="n">
         <v>121.2421114035472</v>
@@ -34535,10 +34535,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O46" t="n">
         <v>147.5017486778054</v>
@@ -34547,19 +34547,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241531</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519271</v>
+        <v>24.4548081751927</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890726</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950056</v>
       </c>
       <c r="N11" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141657</v>
       </c>
       <c r="O11" t="n">
         <v>57.26835895343534</v>
@@ -35430,7 +35430,7 @@
         <v>34.76317361050971</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967149</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056491</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105473</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958338</v>
+        <v>63.49674396958337</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935094</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985322</v>
       </c>
       <c r="P12" t="n">
         <v>36.97725307666553</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098205</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>42.544593212513</v>
       </c>
       <c r="K13" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316586</v>
       </c>
       <c r="M13" t="n">
-        <v>75.9478628023595</v>
+        <v>6.525110163847643</v>
       </c>
       <c r="N13" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559317</v>
       </c>
       <c r="O13" t="n">
-        <v>58.37037986321655</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="P13" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235948</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.300676486855931</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241531</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519277</v>
+        <v>24.4548081751927</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890726</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950056</v>
       </c>
       <c r="N14" t="n">
-        <v>66.42547570141669</v>
+        <v>66.42547570141657</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343534</v>
       </c>
       <c r="P14" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050971</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967149</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056491</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105473</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958337</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935102</v>
+        <v>71.07175948935094</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985322</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666553</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="M16" t="n">
-        <v>72.33641757559538</v>
+        <v>6.525110163847643</v>
       </c>
       <c r="N16" t="n">
-        <v>75.94786280235962</v>
+        <v>9.584400044559317</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5428447094972313</v>
+        <v>56.76975207668548</v>
       </c>
       <c r="P16" t="n">
-        <v>75.94786280235962</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>75.94786280235945</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J17" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K17" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L17" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M17" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O17" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P17" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q17" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R17" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J18" t="n">
         <v>312.361855595743</v>
@@ -35971,22 +35971,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N18" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O18" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P18" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q18" t="n">
-        <v>341.3760161886399</v>
+        <v>361.1414746226779</v>
       </c>
       <c r="R18" t="n">
-        <v>18.28336828375328</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>88.00413230743453</v>
+        <v>22.34618924547859</v>
       </c>
       <c r="K19" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L19" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M19" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N19" t="n">
-        <v>186.1095904660701</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O19" t="n">
-        <v>91.42685060480903</v>
+        <v>235.2146617808548</v>
       </c>
       <c r="P19" t="n">
         <v>333.9661976574595</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.31535144311488</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J21" t="n">
-        <v>190.6327618748888</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K21" t="n">
-        <v>506.080461825859</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L21" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8264825848162</v>
+        <v>259.6889308827173</v>
       </c>
       <c r="N21" t="n">
-        <v>270.5448280395447</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="O21" t="n">
-        <v>238.4057462161409</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="P21" t="n">
         <v>183.4326479153363</v>
@@ -36281,25 +36281,25 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K22" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L22" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M22" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N22" t="n">
-        <v>216.3031158151055</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O22" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P22" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.5734258178642</v>
+        <v>49.95442139913205</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.31535144311488</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J24" t="n">
-        <v>228.8916799606378</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
@@ -36448,19 +36448,19 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>270.5448280395447</v>
+        <v>282.8772423491434</v>
       </c>
       <c r="O24" t="n">
         <v>238.4057462161409</v>
       </c>
       <c r="P24" t="n">
-        <v>506.0804618258591</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132225</v>
+        <v>506.080461825859</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.00413230743453</v>
+        <v>22.34618924547858</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
@@ -36530,13 +36530,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>97.70134702751747</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>70.43338606845134</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J27" t="n">
-        <v>167.4228683925616</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36694,7 +36694,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R27" t="n">
         <v>18.28336828375328</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K28" t="n">
         <v>277.3555737492421</v>
@@ -36764,16 +36764,16 @@
         <v>107.3170392642375</v>
       </c>
       <c r="N28" t="n">
-        <v>443.3679056323699</v>
+        <v>216.3031158151059</v>
       </c>
       <c r="O28" t="n">
-        <v>375.8267913490738</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.201322183229095</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J29" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513373</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L29" t="n">
-        <v>271.6421911238497</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M29" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N29" t="n">
-        <v>322.1978501273999</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O29" t="n">
-        <v>298.7869592732532</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P29" t="n">
-        <v>240.8937112531725</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R29" t="n">
-        <v>58.82526145471046</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>22.31535144311488</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>66.232154611265</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L30" t="n">
-        <v>214.1541257794518</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N30" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O30" t="n">
-        <v>238.4057462161408</v>
+        <v>431.7867494296293</v>
       </c>
       <c r="P30" t="n">
-        <v>183.4326479153362</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.5177167169422</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R30" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.34618924547856</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K31" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N31" t="n">
-        <v>443.3679056323699</v>
+        <v>216.3031158151055</v>
       </c>
       <c r="O31" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>269.9152803064865</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J32" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L32" t="n">
-        <v>271.6421911238496</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M32" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O32" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P32" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q32" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R32" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.54989300907711</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J33" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>145.1737298295874</v>
+        <v>404.1168265390426</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794519</v>
       </c>
       <c r="M33" t="n">
-        <v>427.9112798225732</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N33" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O33" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P33" t="n">
         <v>183.4326479153363</v>
@@ -37171,7 +37171,7 @@
         <v>102.1983779132225</v>
       </c>
       <c r="R33" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.34618924547858</v>
+        <v>22.34618924547859</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448036</v>
       </c>
       <c r="L34" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M34" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
@@ -37244,10 +37244,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P34" t="n">
-        <v>268.8085649693979</v>
+        <v>160.0217794650457</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.02397106449331</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J35" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K35" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L35" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M35" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O35" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P35" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R35" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.54989300907711</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126497</v>
+        <v>66.232154611265</v>
       </c>
       <c r="K36" t="n">
-        <v>145.1737298295874</v>
+        <v>506.0804618258592</v>
       </c>
       <c r="L36" t="n">
-        <v>315.3448395607485</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N36" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O36" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P36" t="n">
-        <v>183.4326479153363</v>
+        <v>327.5987136129972</v>
       </c>
       <c r="Q36" t="n">
-        <v>506.080461825859</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375328</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>22.34618924547858</v>
+        <v>22.34618924547859</v>
       </c>
       <c r="K37" t="n">
-        <v>68.99174184448033</v>
+        <v>68.99174184448036</v>
       </c>
       <c r="L37" t="n">
-        <v>243.7260657213598</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M37" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N37" t="n">
         <v>443.3679056323699</v>
@@ -37481,10 +37481,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650462</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.02397106449331</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J38" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K38" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L38" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M38" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N38" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O38" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P38" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q38" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R38" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.54989300907711</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333066</v>
       </c>
       <c r="L39" t="n">
-        <v>506.0804618258591</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N39" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O39" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.4865400890507</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R39" t="n">
-        <v>107.1416677554515</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K40" t="n">
-        <v>68.99174184448033</v>
+        <v>92.92219217911911</v>
       </c>
       <c r="L40" t="n">
-        <v>243.7260657213601</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M40" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N40" t="n">
         <v>443.3679056323699</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.02397106449331</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J41" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K41" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L41" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M41" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O41" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P41" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R41" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.31535144311488</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J42" t="n">
-        <v>312.361855595743</v>
+        <v>66.232154611265</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L42" t="n">
-        <v>214.1541257794519</v>
+        <v>287.9553516571266</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N42" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O42" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P42" t="n">
-        <v>183.4326479153363</v>
+        <v>506.0804618258592</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.5177167169415</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1416677554515</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K43" t="n">
-        <v>212.1979410611805</v>
+        <v>92.92219217911911</v>
       </c>
       <c r="L43" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N43" t="n">
         <v>443.3679056323699</v>
@@ -37955,10 +37955,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P43" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.02397106449331</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J45" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
         <v>145.1737298295874</v>
@@ -38104,22 +38104,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N45" t="n">
-        <v>506.080461825859</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P45" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q45" t="n">
-        <v>263.1117839151054</v>
+        <v>272.283175150979</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554515</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547858</v>
+        <v>22.34618924547859</v>
       </c>
       <c r="K46" t="n">
-        <v>68.99174184448033</v>
+        <v>68.99174184448036</v>
       </c>
       <c r="L46" t="n">
-        <v>243.7260657213598</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N46" t="n">
         <v>443.3679056323699</v>
@@ -38192,10 +38192,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P46" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650462</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.02397106449331</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88977.0242896642</v>
+        <v>79432.33023379586</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12882298.83281962</v>
+        <v>12882298.83281964</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>66.89487755631824</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="V11" t="n">
-        <v>75.94786280235948</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>75.94786280235948</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>75.94786280235948</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>75.94786280235948</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>75.94786280235948</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.89487755631819</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>75.94786280235948</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.94786280235948</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="X13" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="G14" t="n">
-        <v>66.89487755631822</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.469579910408618</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.09088792211929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>62.80398963419888</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.40922732593032</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="U16" t="n">
-        <v>75.94786280235945</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4856502303878847</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>145.7471939038117</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V17" t="n">
-        <v>86.93486698677653</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028021</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1940,7 +1940,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H18" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505086</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>159.6340118548065</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6063787117351</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>386.3503344499277</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H20" t="n">
-        <v>283.9738944557603</v>
+        <v>104.5169354036137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H21" t="n">
-        <v>58.01809521505031</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>83.78946074098241</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T21" t="n">
         <v>152.7312370348056</v>
@@ -2244,13 +2244,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>84.2263358808778</v>
       </c>
       <c r="G22" t="n">
         <v>164.5343322142292</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V22" t="n">
-        <v>6.710352661917987</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>43.21855977951772</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>94.178672388674</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098197</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>147.5090687066174</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>90.6778915772999</v>
       </c>
       <c r="G25" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>130.1829707604523</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>245.4910145093961</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098241</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.8752232710656</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>35.99196911681101</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2794,16 +2794,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>249.5270616120707</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>206.4163792841296</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188677</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T30" t="n">
         <v>152.7312370348056</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2958,19 +2958,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>58.8044824656389</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>13.20182274973453</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>148.8972172888995</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>300.2316260051975</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>95.15772336924159</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.128973276943574</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>232.6944259398202</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>85.039583077511</v>
       </c>
       <c r="G35" t="n">
-        <v>354.5081466768261</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3426,16 +3426,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>158.469710595162</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>117.3730899534415</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.97336091065153</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>260.4964907751152</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T39" t="n">
         <v>152.7312370348056</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>116.0964337845582</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>105.858677227223</v>
       </c>
       <c r="G40" t="n">
         <v>164.5343322142292</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>123.2996045811722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>334.2242032790911</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521505086</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3900,16 +3900,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35052185511493</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
         <v>166.3415337283568</v>
@@ -3957,16 +3957,16 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>176.1980945138902</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>401.3422567967468</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
-        <v>70.53404966879752</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.3037726831681</v>
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>121.8884874087993</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>90.30961686957086</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I11" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J11" t="n">
         <v>8.518653200747849</v>
       </c>
       <c r="K11" t="n">
-        <v>32.7289132941886</v>
+        <v>32.72891329418871</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020678</v>
+        <v>77.70909531020692</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211123</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655147</v>
+        <v>206.3455576655149</v>
       </c>
       <c r="O11" t="n">
         <v>263.0412330294158</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038204</v>
+        <v>297.4567749038205</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R11" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S11" t="n">
-        <v>303.7914512094379</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="T11" t="n">
-        <v>303.7914512094379</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U11" t="n">
-        <v>227.0764382777617</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V11" t="n">
-        <v>150.3614253460854</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W11" t="n">
-        <v>82.79084195586501</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X11" t="n">
-        <v>6.075829024188758</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.075829024188758</v>
+        <v>73.64641241440921</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>227.0764382777617</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C12" t="n">
-        <v>227.0764382777617</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D12" t="n">
-        <v>150.3614253460854</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E12" t="n">
-        <v>82.79084195586501</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F12" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G12" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H12" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I12" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J12" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="K12" t="n">
         <v>27.18934645194804</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129221</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011796</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956371</v>
+        <v>207.5625237956372</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282918</v>
+        <v>262.9301139282919</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741907</v>
+        <v>299.5375944741908</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R12" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S12" t="n">
-        <v>227.0764382777617</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T12" t="n">
-        <v>227.0764382777617</v>
+        <v>303.791451209438</v>
       </c>
       <c r="U12" t="n">
-        <v>227.0764382777617</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="V12" t="n">
-        <v>227.0764382777617</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="W12" t="n">
-        <v>227.0764382777617</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0764382777617</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="Y12" t="n">
-        <v>227.0764382777617</v>
+        <v>6.07582902418876</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.64641241440917</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C13" t="n">
-        <v>73.64641241440917</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D13" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E13" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F13" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G13" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H13" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I13" t="n">
-        <v>6.075829024188758</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J13" t="n">
         <v>48.19497630457663</v>
@@ -5208,43 +5208,43 @@
         <v>128.2585980324559</v>
       </c>
       <c r="M13" t="n">
-        <v>134.7184570946651</v>
+        <v>203.4469822067918</v>
       </c>
       <c r="N13" t="n">
-        <v>144.2070131387788</v>
+        <v>212.9355382509055</v>
       </c>
       <c r="O13" t="n">
-        <v>219.3953973131147</v>
+        <v>288.1239224252414</v>
       </c>
       <c r="P13" t="n">
-        <v>294.5837814874506</v>
+        <v>303.791451209438</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R13" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S13" t="n">
-        <v>303.7914512094379</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T13" t="n">
-        <v>227.0764382777617</v>
+        <v>303.791451209438</v>
       </c>
       <c r="U13" t="n">
-        <v>227.0764382777617</v>
+        <v>303.791451209438</v>
       </c>
       <c r="V13" t="n">
-        <v>150.3614253460854</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="W13" t="n">
-        <v>150.3614253460854</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="X13" t="n">
-        <v>73.64641241440917</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.64641241440917</v>
+        <v>82.79084195586502</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150.3614253460854</v>
+        <v>236.2208678192173</v>
       </c>
       <c r="C14" t="n">
-        <v>150.3614253460854</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="D14" t="n">
-        <v>150.3614253460854</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="E14" t="n">
-        <v>150.3614253460854</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="F14" t="n">
-        <v>73.6464124144092</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="G14" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H14" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I14" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747869</v>
+        <v>8.518653200747838</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418864</v>
+        <v>32.72891329418859</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020683</v>
+        <v>77.70909531020676</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655147</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294158</v>
+        <v>263.0412330294156</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038204</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R14" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S14" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T14" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="U14" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="V14" t="n">
-        <v>150.3614253460854</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="W14" t="n">
-        <v>150.3614253460854</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="X14" t="n">
-        <v>150.3614253460854</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.3614253460854</v>
+        <v>236.2208678192173</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>227.0764382777616</v>
+        <v>86.92305197820764</v>
       </c>
       <c r="C15" t="n">
-        <v>227.0764382777616</v>
+        <v>86.92305197820764</v>
       </c>
       <c r="D15" t="n">
-        <v>225.5920141258337</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="E15" t="n">
-        <v>225.5920141258337</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="F15" t="n">
-        <v>148.8770011941575</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="G15" t="n">
-        <v>72.16198826248132</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="H15" t="n">
-        <v>6.075829024188756</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="I15" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J15" t="n">
-        <v>6.075829024188586</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194785</v>
+        <v>27.18934645194782</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129203</v>
+        <v>74.33970537129198</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011796</v>
+        <v>137.2014819011795</v>
       </c>
       <c r="N15" t="n">
-        <v>207.562523795637</v>
+        <v>207.5625237956369</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282917</v>
+        <v>262.9301139282916</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741906</v>
+        <v>299.5375944741904</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R15" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S15" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T15" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="U15" t="n">
-        <v>227.0764382777616</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="V15" t="n">
-        <v>227.0764382777616</v>
+        <v>240.35307784156</v>
       </c>
       <c r="W15" t="n">
-        <v>227.0764382777616</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0764382777616</v>
+        <v>86.92305197820764</v>
       </c>
       <c r="Y15" t="n">
-        <v>227.0764382777616</v>
+        <v>86.92305197820764</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.075829024188756</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="C16" t="n">
-        <v>6.075829024188756</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="D16" t="n">
-        <v>6.075829024188756</v>
+        <v>82.79084195586492</v>
       </c>
       <c r="E16" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="F16" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="G16" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="H16" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I16" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J16" t="n">
-        <v>6.075829024188756</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K16" t="n">
-        <v>6.075829024188756</v>
+        <v>61.74046731770515</v>
       </c>
       <c r="L16" t="n">
-        <v>81.2642131985246</v>
+        <v>136.928851492041</v>
       </c>
       <c r="M16" t="n">
-        <v>87.72407226073376</v>
+        <v>143.3887105542501</v>
       </c>
       <c r="N16" t="n">
-        <v>97.21262830484748</v>
+        <v>152.8772665983638</v>
       </c>
       <c r="O16" t="n">
-        <v>153.4146828607661</v>
+        <v>153.414682860766</v>
       </c>
       <c r="P16" t="n">
-        <v>228.603067035102</v>
+        <v>228.6030670351018</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.7914512094378</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R16" t="n">
-        <v>236.711423607488</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S16" t="n">
-        <v>159.9964106758118</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T16" t="n">
-        <v>83.28139774413556</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="U16" t="n">
-        <v>6.566384812459347</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="V16" t="n">
-        <v>6.075829024188756</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="W16" t="n">
-        <v>6.075829024188756</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="X16" t="n">
-        <v>6.075829024188756</v>
+        <v>159.5058548875411</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.075829024188756</v>
+        <v>82.79084195586492</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1269.415173022841</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="C17" t="n">
-        <v>859.2905823361116</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="D17" t="n">
-        <v>454.826652429172</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="E17" t="n">
-        <v>40.48643694606873</v>
+        <v>1154.737524722578</v>
       </c>
       <c r="F17" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G17" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H17" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I17" t="n">
-        <v>44.64574590746565</v>
+        <v>44.64574590746558</v>
       </c>
       <c r="J17" t="n">
-        <v>167.5334271492899</v>
+        <v>167.53342714929</v>
       </c>
       <c r="K17" t="n">
         <v>372.2593058752966</v>
@@ -5524,7 +5524,7 @@
         <v>641.185075087908</v>
       </c>
       <c r="M17" t="n">
-        <v>953.2429319501309</v>
+        <v>953.242931950131</v>
       </c>
       <c r="N17" t="n">
         <v>1272.218803576257</v>
@@ -5539,28 +5539,28 @@
         <v>1966.084838463273</v>
       </c>
       <c r="R17" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028804</v>
       </c>
       <c r="T17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028804</v>
       </c>
       <c r="U17" t="n">
-        <v>1767.449349643671</v>
+        <v>1685.717213369038</v>
       </c>
       <c r="V17" t="n">
-        <v>1679.636352687331</v>
+        <v>1685.717213369038</v>
       </c>
       <c r="W17" t="n">
-        <v>1679.636352687331</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="X17" t="n">
-        <v>1679.636352687331</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="Y17" t="n">
-        <v>1679.636352687331</v>
+        <v>1301.956912504206</v>
       </c>
     </row>
     <row r="18">
@@ -5576,49 +5576,49 @@
         <v>551.1732185579554</v>
       </c>
       <c r="D18" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773478</v>
       </c>
       <c r="E18" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696758</v>
       </c>
       <c r="F18" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521804</v>
       </c>
       <c r="G18" t="n">
-        <v>99.09057352692761</v>
+        <v>99.0905735269282</v>
       </c>
       <c r="H18" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I18" t="n">
-        <v>43.01083102505508</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J18" t="n">
-        <v>352.2490680648407</v>
+        <v>128.1484679399048</v>
       </c>
       <c r="K18" t="n">
-        <v>495.9710605961322</v>
+        <v>271.8704604711964</v>
       </c>
       <c r="L18" t="n">
-        <v>707.9836451177896</v>
+        <v>483.8830449928538</v>
       </c>
       <c r="M18" t="n">
-        <v>963.2318628767578</v>
+        <v>739.131262751822</v>
       </c>
       <c r="N18" t="n">
-        <v>1231.071242635907</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O18" t="n">
-        <v>1467.092931389887</v>
+        <v>1242.992331264951</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.69125282607</v>
+        <v>1424.590652701134</v>
       </c>
       <c r="Q18" t="n">
-        <v>2006.221312702521</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R18" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S18" t="n">
         <v>1939.686028373152</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>499.9697860934979</v>
+        <v>859.4280409800276</v>
       </c>
       <c r="C19" t="n">
-        <v>328.8764136552144</v>
+        <v>688.3346685417441</v>
       </c>
       <c r="D19" t="n">
-        <v>169.3817689781244</v>
+        <v>528.8400238646541</v>
       </c>
       <c r="E19" t="n">
-        <v>169.3817689781244</v>
+        <v>367.9292087329736</v>
       </c>
       <c r="F19" t="n">
-        <v>169.3817689781244</v>
+        <v>206.6827321119569</v>
       </c>
       <c r="G19" t="n">
-        <v>169.3817689781244</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="H19" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="I19" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606874</v>
       </c>
       <c r="J19" t="n">
-        <v>62.60916429909253</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K19" t="n">
-        <v>337.1911823108422</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L19" t="n">
-        <v>750.6849613854783</v>
+        <v>815.6863250168147</v>
       </c>
       <c r="M19" t="n">
-        <v>1201.895179771359</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N19" t="n">
-        <v>1308.79510489982</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O19" t="n">
-        <v>1541.657620062866</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P19" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q19" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="R19" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="S19" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303437</v>
       </c>
       <c r="T19" t="n">
-        <v>1986.445114104106</v>
+        <v>1789.27697261675</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.704462790698</v>
+        <v>1789.27697261675</v>
       </c>
       <c r="V19" t="n">
-        <v>1429.81871773022</v>
+        <v>1789.27697261675</v>
       </c>
       <c r="W19" t="n">
-        <v>1150.749053239094</v>
+        <v>1510.207308125624</v>
       </c>
       <c r="X19" t="n">
-        <v>912.4051910987775</v>
+        <v>1271.863445985307</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.6694924875422</v>
+        <v>1047.127747374072</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1123.959975757001</v>
+        <v>973.4678691143495</v>
       </c>
       <c r="C20" t="n">
-        <v>1123.959975757001</v>
+        <v>973.4678691143495</v>
       </c>
       <c r="D20" t="n">
-        <v>1123.959975757001</v>
+        <v>973.4678691143495</v>
       </c>
       <c r="E20" t="n">
-        <v>733.707112676266</v>
+        <v>973.4678691143495</v>
       </c>
       <c r="F20" t="n">
-        <v>733.707112676266</v>
+        <v>552.437457068037</v>
       </c>
       <c r="G20" t="n">
-        <v>327.3287545781499</v>
+        <v>146.0590989699209</v>
       </c>
       <c r="H20" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I20" t="n">
-        <v>44.64574590746555</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J20" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K20" t="n">
-        <v>372.2593058752971</v>
+        <v>372.2593058752959</v>
       </c>
       <c r="L20" t="n">
-        <v>641.1850750879084</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M20" t="n">
-        <v>953.2429319501314</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N20" t="n">
         <v>1272.218803576257</v>
@@ -5779,25 +5779,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S20" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T20" t="n">
-        <v>1730.670028080286</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U20" t="n">
-        <v>1473.79753042052</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V20" t="n">
-        <v>1123.959975757001</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="W20" t="n">
-        <v>1123.959975757001</v>
+        <v>1383.689048778839</v>
       </c>
       <c r="X20" t="n">
-        <v>1123.959975757001</v>
+        <v>1383.689048778839</v>
       </c>
       <c r="Y20" t="n">
-        <v>1123.959975757001</v>
+        <v>1383.689048778839</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G21" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H21" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I21" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J21" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K21" t="n">
-        <v>252.3026566214989</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L21" t="n">
-        <v>464.3152411431562</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M21" t="n">
-        <v>721.4072827170463</v>
+        <v>982.7996667264551</v>
       </c>
       <c r="N21" t="n">
-        <v>1222.426939924647</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O21" t="n">
-        <v>1723.446597132247</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P21" t="n">
-        <v>1905.04491856843</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q21" t="n">
-        <v>2006.221312702521</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R21" t="n">
         <v>2024.321847303436</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.694781664777</v>
+        <v>687.7353029169798</v>
       </c>
       <c r="C22" t="n">
-        <v>916.6014092264938</v>
+        <v>516.6419304786963</v>
       </c>
       <c r="D22" t="n">
-        <v>757.1067645494038</v>
+        <v>516.6419304786963</v>
       </c>
       <c r="E22" t="n">
-        <v>596.1959494177233</v>
+        <v>516.6419304786963</v>
       </c>
       <c r="F22" t="n">
         <v>431.5648235283147</v>
@@ -5907,28 +5907,28 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I22" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J22" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K22" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L22" t="n">
-        <v>609.4061314311004</v>
+        <v>815.6863250168147</v>
       </c>
       <c r="M22" t="n">
-        <v>1060.616349816981</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N22" t="n">
-        <v>1499.550576393027</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O22" t="n">
-        <v>1905.137917910529</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P22" t="n">
-        <v>1974.866970118296</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q22" t="n">
         <v>2024.321847303436</v>
@@ -5937,25 +5937,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S22" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U22" t="n">
-        <v>2024.321847303436</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V22" t="n">
-        <v>2017.543713301499</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="W22" t="n">
-        <v>1738.474048810373</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="X22" t="n">
-        <v>1500.130186670057</v>
+        <v>1100.170707922259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.394488058822</v>
+        <v>875.4350093110241</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>919.5121753638862</v>
+        <v>952.1193578406865</v>
       </c>
       <c r="C23" t="n">
-        <v>875.8570644754844</v>
+        <v>541.9947671539566</v>
       </c>
       <c r="D23" t="n">
-        <v>875.8570644754844</v>
+        <v>541.9947671539566</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923811</v>
+        <v>541.9947671539566</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606872</v>
+        <v>541.9947671539566</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606872</v>
+        <v>135.6164090558404</v>
       </c>
       <c r="H23" t="n">
         <v>40.48643694606872</v>
@@ -6019,22 +6019,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U23" t="n">
-        <v>1730.670028080286</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V23" t="n">
-        <v>1730.670028080286</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W23" t="n">
-        <v>1730.670028080286</v>
+        <v>952.1193578406865</v>
       </c>
       <c r="X23" t="n">
-        <v>1730.670028080286</v>
+        <v>952.1193578406865</v>
       </c>
       <c r="Y23" t="n">
-        <v>1329.733355028376</v>
+        <v>952.1193578406865</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505506</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J24" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>252.3026566214989</v>
+        <v>664.3550098615116</v>
       </c>
       <c r="L24" t="n">
-        <v>464.3152411431562</v>
+        <v>876.3675943831689</v>
       </c>
       <c r="M24" t="n">
-        <v>719.5634589021244</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N24" t="n">
-        <v>999.6119288277763</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O24" t="n">
-        <v>1235.633617581756</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P24" t="n">
-        <v>1417.231939017939</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q24" t="n">
         <v>1918.251596225539</v>
@@ -6098,7 +6098,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
         <v>1588.14395921251</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.4062897392627</v>
+        <v>843.5641132131456</v>
       </c>
       <c r="C25" t="n">
-        <v>520.3129173009792</v>
+        <v>843.5641132131456</v>
       </c>
       <c r="D25" t="n">
-        <v>520.3129173009792</v>
+        <v>684.0694685360556</v>
       </c>
       <c r="E25" t="n">
-        <v>371.3138580013656</v>
+        <v>523.1586534043752</v>
       </c>
       <c r="F25" t="n">
-        <v>206.6827321119568</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48643694606872</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606872</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="J25" t="n">
-        <v>62.60916429909251</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L25" t="n">
-        <v>544.4047677997642</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M25" t="n">
-        <v>995.6149861856447</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N25" t="n">
-        <v>1434.549212761691</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O25" t="n">
-        <v>1840.136554279193</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P25" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6183,16 +6183,16 @@
         <v>1621.255221375985</v>
       </c>
       <c r="V25" t="n">
-        <v>1621.255221375985</v>
+        <v>1347.369476315507</v>
       </c>
       <c r="W25" t="n">
-        <v>1342.185556884859</v>
+        <v>1068.299811824381</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.841694744542</v>
+        <v>1068.299811824381</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.105996133307</v>
+        <v>843.5641132131456</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.48643694606873</v>
+        <v>582.1089778958818</v>
       </c>
       <c r="C26" t="n">
-        <v>40.48643694606873</v>
+        <v>171.9843872091519</v>
       </c>
       <c r="D26" t="n">
         <v>40.48643694606873</v>
@@ -6223,28 +6223,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L26" t="n">
         <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501309</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463273</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.670028080286</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U26" t="n">
-        <v>1473.79753042052</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="V26" t="n">
-        <v>1225.826808693858</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="W26" t="n">
-        <v>842.0665078290261</v>
+        <v>1383.689048778839</v>
       </c>
       <c r="X26" t="n">
-        <v>441.4231099979787</v>
+        <v>983.0456509477917</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.48643694606873</v>
+        <v>582.1089778958818</v>
       </c>
     </row>
     <row r="27">
@@ -6305,7 +6305,7 @@
         <v>43.01083102505507</v>
       </c>
       <c r="J27" t="n">
-        <v>208.7594707336913</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K27" t="n">
         <v>352.4814632649828</v>
@@ -6326,7 +6326,7 @@
         <v>1505.20165549492</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.221312702521</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.1329440640648</v>
+        <v>547.6655627202191</v>
       </c>
       <c r="C28" t="n">
-        <v>125.1329440640648</v>
+        <v>376.5721902819356</v>
       </c>
       <c r="D28" t="n">
-        <v>125.1329440640648</v>
+        <v>217.0775456048456</v>
       </c>
       <c r="E28" t="n">
-        <v>125.1329440640648</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="F28" t="n">
-        <v>125.1329440640648</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1329440640648</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606873</v>
@@ -6393,10 +6393,10 @@
         <v>815.6863250168146</v>
       </c>
       <c r="M28" t="n">
-        <v>921.9301938884097</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N28" t="n">
-        <v>1136.070278545365</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O28" t="n">
         <v>1541.657620062866</v>
@@ -6411,25 +6411,25 @@
         <v>1986.445114104106</v>
       </c>
       <c r="S28" t="n">
-        <v>1818.423362863342</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T28" t="n">
-        <v>1583.378488176655</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="U28" t="n">
-        <v>1300.637836863246</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="V28" t="n">
-        <v>1026.752091802768</v>
+        <v>1477.514494356941</v>
       </c>
       <c r="W28" t="n">
-        <v>747.6824273116426</v>
+        <v>1198.444829865815</v>
       </c>
       <c r="X28" t="n">
-        <v>509.338565171326</v>
+        <v>960.1009677254988</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6028665600907</v>
+        <v>735.3652691142635</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1063.576350756031</v>
+        <v>1532.368531364314</v>
       </c>
       <c r="C29" t="n">
-        <v>653.4517600693008</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="D29" t="n">
-        <v>248.9878301623613</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E29" t="n">
-        <v>248.9878301623613</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F29" t="n">
         <v>40.48643694606873</v>
@@ -6460,25 +6460,25 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746557</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492902</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752961</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
@@ -6493,22 +6493,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T29" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U29" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V29" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W29" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="X29" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="Y29" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579549</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D30" t="n">
         <v>434.2760607773473</v>
@@ -6539,37 +6539,37 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I30" t="n">
-        <v>62.57863487475248</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J30" t="n">
-        <v>128.1484679399048</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K30" t="n">
-        <v>271.8704604711964</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L30" t="n">
-        <v>772.8901176787969</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M30" t="n">
-        <v>1028.138335437765</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N30" t="n">
-        <v>1295.977715196914</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P30" t="n">
-        <v>1905.04491856843</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T30" t="n">
         <v>1785.412051570318</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>821.5513077806971</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="C31" t="n">
-        <v>650.4579353424136</v>
+        <v>544.1436771731369</v>
       </c>
       <c r="D31" t="n">
-        <v>490.9632906653237</v>
+        <v>384.6490324960469</v>
       </c>
       <c r="E31" t="n">
-        <v>431.5648235283147</v>
+        <v>384.6490324960469</v>
       </c>
       <c r="F31" t="n">
-        <v>431.5648235283147</v>
+        <v>220.0179066066382</v>
       </c>
       <c r="G31" t="n">
-        <v>265.3685283624266</v>
+        <v>53.82161144075008</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606873</v>
@@ -6624,16 +6624,16 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>402.1925459421786</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L31" t="n">
-        <v>815.6863250168147</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M31" t="n">
-        <v>921.9301938884099</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N31" t="n">
-        <v>1136.070278545364</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O31" t="n">
         <v>1541.657620062866</v>
@@ -6645,28 +6645,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.400239417419</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.400239417419</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V31" t="n">
-        <v>1751.400239417419</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W31" t="n">
-        <v>1472.330574926293</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X31" t="n">
-        <v>1233.986712785977</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y31" t="n">
-        <v>1009.251014174741</v>
+        <v>715.2370496114204</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>856.9893857309148</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="C32" t="n">
-        <v>446.8647950441849</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D32" t="n">
-        <v>446.8647950441849</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E32" t="n">
-        <v>446.8647950441849</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F32" t="n">
-        <v>446.8647950441849</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H32" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746565</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492897</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L32" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501302</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q32" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
         <v>2024.321847303436</v>
@@ -6730,22 +6730,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>1873.920617718689</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U32" t="n">
-        <v>1617.048120058924</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V32" t="n">
-        <v>1267.210565395404</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="W32" t="n">
-        <v>1267.210565395404</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="X32" t="n">
-        <v>1267.210565395404</v>
+        <v>1252.265398003034</v>
       </c>
       <c r="Y32" t="n">
-        <v>1267.210565395404</v>
+        <v>851.3287249511243</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692776</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H33" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505508</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J33" t="n">
-        <v>352.2490680648407</v>
+        <v>108.5806640902073</v>
       </c>
       <c r="K33" t="n">
-        <v>752.3247263384928</v>
+        <v>609.6003212978077</v>
       </c>
       <c r="L33" t="n">
-        <v>964.3373108601502</v>
+        <v>821.6129058194649</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.585528619118</v>
+        <v>1076.861123578433</v>
       </c>
       <c r="N33" t="n">
-        <v>1487.424908378268</v>
+        <v>1344.700503337582</v>
       </c>
       <c r="O33" t="n">
-        <v>1723.446597132247</v>
+        <v>1580.722192091562</v>
       </c>
       <c r="P33" t="n">
-        <v>1905.04491856843</v>
+        <v>1762.320513527744</v>
       </c>
       <c r="Q33" t="n">
         <v>2006.22131270252</v>
@@ -6806,25 +6806,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T33" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U33" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W33" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>509.3385651713258</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="C34" t="n">
-        <v>509.3385651713258</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="D34" t="n">
-        <v>349.8439204942358</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="E34" t="n">
-        <v>188.9331053625553</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F34" t="n">
-        <v>188.9331053625553</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G34" t="n">
-        <v>188.9331053625553</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H34" t="n">
-        <v>48.69752106419355</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I34" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>62.60916429909253</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>130.9109887251281</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L34" t="n">
-        <v>544.4047677997642</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M34" t="n">
-        <v>995.6149861856447</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N34" t="n">
-        <v>1434.549212761691</v>
+        <v>1451.145037964104</v>
       </c>
       <c r="O34" t="n">
-        <v>1840.136554279193</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P34" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T34" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U34" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V34" t="n">
-        <v>1026.752091802768</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W34" t="n">
-        <v>747.6824273116424</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X34" t="n">
-        <v>509.3385651713258</v>
+        <v>715.2370496114199</v>
       </c>
       <c r="Y34" t="n">
-        <v>509.3385651713258</v>
+        <v>490.5013510001846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1213.163994587037</v>
+        <v>1357.228169979181</v>
       </c>
       <c r="C35" t="n">
-        <v>803.0394039003073</v>
+        <v>947.1035792924507</v>
       </c>
       <c r="D35" t="n">
-        <v>398.5754739933678</v>
+        <v>947.1035792924507</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5754739933678</v>
+        <v>532.7633638093474</v>
       </c>
       <c r="F35" t="n">
-        <v>398.5754739933678</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H35" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746558</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J35" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492897</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L35" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501302</v>
       </c>
       <c r="N35" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P35" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
-        <v>1966.084838463274</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303437</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303437</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.321847303437</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.321847303437</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="Y35" t="n">
-        <v>1623.385174251527</v>
+        <v>1767.44934964367</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H36" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505509</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902074</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K36" t="n">
-        <v>609.600321297808</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6129058194654</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M36" t="n">
-        <v>1076.861123578434</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.700503337583</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O36" t="n">
-        <v>1580.722192091562</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>537.8465192928282</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="C37" t="n">
-        <v>366.7531468545448</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="D37" t="n">
-        <v>366.7531468545448</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E37" t="n">
-        <v>366.7531468545448</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F37" t="n">
-        <v>206.6827321119569</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G37" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H37" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I37" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>62.60916429909254</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9109887251281</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L37" t="n">
-        <v>544.4047677997642</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M37" t="n">
-        <v>995.6149861856447</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N37" t="n">
         <v>1434.549212761691</v>
       </c>
       <c r="O37" t="n">
-        <v>1840.136554279193</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.558115949588</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.321847303437</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U37" t="n">
-        <v>1741.581195990028</v>
+        <v>1670.718295896101</v>
       </c>
       <c r="V37" t="n">
-        <v>1467.69545092955</v>
+        <v>1396.832550835623</v>
       </c>
       <c r="W37" t="n">
-        <v>1188.625786438424</v>
+        <v>1117.762886344497</v>
       </c>
       <c r="X37" t="n">
-        <v>950.2819242981079</v>
+        <v>879.4190242041805</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.5462256868726</v>
+        <v>879.4190242041805</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.453315637854</v>
+        <v>450.6110276327986</v>
       </c>
       <c r="C38" t="n">
-        <v>851.3287249511243</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="D38" t="n">
-        <v>446.8647950441849</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E38" t="n">
-        <v>446.8647950441849</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F38" t="n">
-        <v>446.8647950441849</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H38" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746558</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J38" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L38" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.242931950131</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P38" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2012.227543353284</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2012.227543353284</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U38" t="n">
-        <v>2012.227543353284</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.389988689764</v>
+        <v>1123.959975757</v>
       </c>
       <c r="W38" t="n">
-        <v>1662.389988689764</v>
+        <v>860.8322072972881</v>
       </c>
       <c r="X38" t="n">
-        <v>1662.389988689764</v>
+        <v>860.8322072972881</v>
       </c>
       <c r="Y38" t="n">
-        <v>1261.453315637854</v>
+        <v>860.8322072972881</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579554</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G39" t="n">
-        <v>99.0905735269282</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H39" t="n">
-        <v>40.4864369460693</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>62.57863487475305</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>371.8168719145386</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>664.3550098615121</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>876.3675943831695</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>1131.615812142138</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1399.455191901287</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1635.476880655267</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P39" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q39" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W39" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>820.5871706062368</v>
+        <v>728.8452131405012</v>
       </c>
       <c r="C40" t="n">
-        <v>649.4937981679533</v>
+        <v>557.7518407022177</v>
       </c>
       <c r="D40" t="n">
-        <v>532.2246731330461</v>
+        <v>398.2571960251277</v>
       </c>
       <c r="E40" t="n">
-        <v>371.3138580013656</v>
+        <v>398.2571960251277</v>
       </c>
       <c r="F40" t="n">
-        <v>206.6827321119569</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G40" t="n">
-        <v>40.48643694606874</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H40" t="n">
-        <v>40.48643694606874</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I40" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>219.6034981877568</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L40" t="n">
-        <v>633.0972772623929</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M40" t="n">
-        <v>1084.307495648274</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N40" t="n">
-        <v>1523.24172222432</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O40" t="n">
-        <v>1928.829063741821</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.558115949588</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.321847303437</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>2024.321847303437</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V40" t="n">
-        <v>1750.436102242959</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W40" t="n">
-        <v>1471.366437751833</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X40" t="n">
-        <v>1233.022575611516</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.286877000281</v>
+        <v>728.8452131405012</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>875.8570644754845</v>
+        <v>872.9042217569596</v>
       </c>
       <c r="C41" t="n">
-        <v>875.8570644754845</v>
+        <v>872.9042217569596</v>
       </c>
       <c r="D41" t="n">
-        <v>875.8570644754845</v>
+        <v>872.9042217569596</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5168489923812</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="F41" t="n">
-        <v>40.48643694606874</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606874</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746558</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J41" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492902</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879082</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501314</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
         <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303437</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W41" t="n">
-        <v>1686.721641971021</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="X41" t="n">
-        <v>1286.078244139974</v>
+        <v>1273.84089480887</v>
       </c>
       <c r="Y41" t="n">
-        <v>1286.078244139974</v>
+        <v>872.9042217569596</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579554</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G42" t="n">
-        <v>99.0905735269282</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I42" t="n">
-        <v>62.57863487475248</v>
+        <v>43.01083102505506</v>
       </c>
       <c r="J42" t="n">
-        <v>128.1484679399048</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K42" t="n">
-        <v>271.8704604711964</v>
+        <v>664.3550098615124</v>
       </c>
       <c r="L42" t="n">
-        <v>556.9462586117518</v>
+        <v>876.3675943831696</v>
       </c>
       <c r="M42" t="n">
-        <v>812.1944763707199</v>
+        <v>1131.615812142138</v>
       </c>
       <c r="N42" t="n">
-        <v>1080.033856129869</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O42" t="n">
-        <v>1316.055544883849</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P42" t="n">
         <v>1817.075202091449</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R42" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T42" t="n">
         <v>1785.412051570318</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W42" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.7798933653768</v>
+        <v>696.6163950825314</v>
       </c>
       <c r="C43" t="n">
-        <v>40.48643694606874</v>
+        <v>525.5230226442479</v>
       </c>
       <c r="D43" t="n">
-        <v>40.48643694606874</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E43" t="n">
-        <v>40.48643694606874</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F43" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>219.6034981877568</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>633.0972772623929</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.307495648274</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.24172222432</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O43" t="n">
-        <v>1928.829063741821</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949588</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>2024.321847303437</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.300096062672</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.255221375985</v>
+        <v>1583.378488176655</v>
       </c>
       <c r="U43" t="n">
-        <v>1338.514570062577</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V43" t="n">
-        <v>1064.628825002099</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="W43" t="n">
-        <v>785.559160510973</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="X43" t="n">
-        <v>547.2152983706565</v>
+        <v>1062.29397472293</v>
       </c>
       <c r="Y43" t="n">
-        <v>322.4795997594211</v>
+        <v>884.3161014765758</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1285.981655162214</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="C44" t="n">
-        <v>875.8570644754845</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="D44" t="n">
-        <v>875.8570644754845</v>
+        <v>1281.253283462097</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5168489923812</v>
+        <v>866.9130679789941</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606874</v>
+        <v>445.8826559326817</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746534</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K44" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501308</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R44" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303437</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>1953.07533248647</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U44" t="n">
-        <v>1696.202834826704</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V44" t="n">
-        <v>1696.202834826704</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W44" t="n">
-        <v>1696.202834826704</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="X44" t="n">
-        <v>1696.202834826704</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="Y44" t="n">
-        <v>1696.202834826704</v>
+        <v>1685.717213369037</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505509</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648407</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K45" t="n">
-        <v>495.9710605961322</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L45" t="n">
-        <v>707.9836451177896</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M45" t="n">
-        <v>963.2318628767578</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N45" t="n">
         <v>1231.071242635907</v>
       </c>
       <c r="O45" t="n">
-        <v>1467.092931389887</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.69125282607</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.251596225539</v>
@@ -7757,7 +7757,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U45" t="n">
         <v>1588.14395921251</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>211.5798093843522</v>
+        <v>585.5422959195488</v>
       </c>
       <c r="C46" t="n">
-        <v>40.48643694606874</v>
+        <v>414.4489234812653</v>
       </c>
       <c r="D46" t="n">
-        <v>40.48643694606874</v>
+        <v>414.4489234812653</v>
       </c>
       <c r="E46" t="n">
-        <v>40.48643694606874</v>
+        <v>414.4489234812653</v>
       </c>
       <c r="F46" t="n">
-        <v>40.48643694606874</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606874</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606874</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606874</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909254</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9109887251281</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L46" t="n">
-        <v>544.4047677997642</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M46" t="n">
-        <v>995.6149861856447</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N46" t="n">
-        <v>1434.549212761691</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O46" t="n">
-        <v>1840.136554279193</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q46" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>2024.321847303437</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1933.100012081648</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1698.055137394961</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U46" t="n">
-        <v>1415.314486081552</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="V46" t="n">
-        <v>1141.428741021074</v>
+        <v>1515.391227556271</v>
       </c>
       <c r="W46" t="n">
-        <v>862.3590765299487</v>
+        <v>1236.321563065145</v>
       </c>
       <c r="X46" t="n">
-        <v>624.015214389632</v>
+        <v>997.9777009248285</v>
       </c>
       <c r="Y46" t="n">
-        <v>399.2795157783967</v>
+        <v>773.2420023135932</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174886</v>
+        <v>31.21809620174887</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226668</v>
+        <v>6.228584518226675</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>81.66010830944106</v>
+        <v>81.66010830944107</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>69.42275263851187</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>75.40501809286228</v>
+        <v>75.40501809286231</v>
       </c>
       <c r="P13" t="n">
-        <v>83.28144447453252</v>
+        <v>23.15936832287665</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.11852291025284</v>
+        <v>27.81784642339691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174886</v>
+        <v>31.21809620174887</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>6.228584518226668</v>
+        <v>6.228584518226675</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,10 +9087,10 @@
         <v>23.11334984944295</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081569</v>
+        <v>61.93915287426987</v>
       </c>
       <c r="L16" t="n">
-        <v>71.02338042504286</v>
+        <v>71.02338042504283</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>56.22690736718828</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>83.28144447453249</v>
+        <v>83.28144447453244</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7657092257564</v>
+        <v>103.7657092257563</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>258.9430967094554</v>
+        <v>396.4490397881978</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>143.7878111760458</v>
+        <v>205.6793228674607</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.862448297901039</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>235.5356337863144</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>267.6747156097182</v>
+        <v>150.319338803719</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631246</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.93045033463874</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.3193388037192</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>12.33241430959868</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>403.8820839126365</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>108.323393463125</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>89.58839339659416</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,11 +9953,11 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>101.1907137812969</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>403.8820839126367</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10041,10 +10041,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="N28" t="n">
-        <v>108.3233934631254</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>291.9263360464071</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3810032134884</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.31933880372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>108.3233934631249</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811409021</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
@@ -10427,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>258.9430967094551</v>
+        <v>360.9067319962716</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>144.166065697662</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10518,16 +10518,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>78.12986811408966</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>89.58839339659437</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1907137812969</v>
       </c>
       <c r="K36" t="n">
-        <v>360.9067319962717</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>144.1660656976609</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>89.58839339659482</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>150.3193388037191</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,7 +10983,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>23.93045033463875</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>23.93045033463853</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>170.0847972377578</v>
       </c>
       <c r="L42" t="n">
-        <v>73.80122587767471</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>322.6478139105228</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>23.93045033463875</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.93045033463898</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>170.0847972377566</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>89.58839339659482</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.93045033463853</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>339.2240903115263</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23278,7 +23278,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367295</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5793406133823</v>
+        <v>37.6314778110228</v>
       </c>
       <c r="T11" t="n">
         <v>216.0753719669003</v>
@@ -23317,16 +23317,16 @@
         <v>178.470585121889</v>
       </c>
       <c r="V11" t="n">
-        <v>270.3913163145246</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>313.0278202998649</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>320.6891010503775</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>320.9794435190313</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>39.780323400442</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>52.39301029127709</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>31.92241821696098</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>105.4424218008434</v>
@@ -23357,7 +23357,7 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>4.090887922119286</v>
+        <v>4.09088792211929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>22.08751178725505</v>
+        <v>98.03537458961453</v>
       </c>
       <c r="T12" t="n">
         <v>155.8226171592196</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3458692164555</v>
+        <v>128.4509916601372</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>135.626548934537</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>135.152973778675</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>98.61485924013662</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>109.8748465277445</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>91.00482067400088</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23469,19 +23469,19 @@
         <v>177.547131831091</v>
       </c>
       <c r="T13" t="n">
-        <v>159.493892875742</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U13" t="n">
         <v>279.9483170948056</v>
       </c>
       <c r="V13" t="n">
-        <v>195.1990248075138</v>
+        <v>204.252010053555</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>200.3311050438548</v>
       </c>
       <c r="X13" t="n">
-        <v>160.012560716554</v>
+        <v>160.0125607165539</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23497,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>330.0754819775032</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>340.8722451234898</v>
+        <v>340.8722451234899</v>
       </c>
       <c r="G14" t="n">
-        <v>336.8531374743217</v>
+        <v>327.8001522282805</v>
       </c>
       <c r="H14" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367295</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>216.0753719669003</v>
       </c>
       <c r="U14" t="n">
-        <v>178.470585121889</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V14" t="n">
-        <v>270.3913163145247</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>330.0324287650726</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>114.2586062923929</v>
+        <v>39.78032340044207</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>31.92241821696101</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>29.49455899848392</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>4.090887922119286</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>22.08751178725508</v>
+        <v>98.03537458961453</v>
       </c>
       <c r="T15" t="n">
         <v>155.8226171592196</v>
@@ -23633,13 +23633,13 @@
         <v>195.3458692164555</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>148.7704221026976</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>98.61485924013671</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -23661,7 +23661,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>83.35384417800431</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>101.5992690287316</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T16" t="n">
-        <v>159.493892875742</v>
+        <v>159.4938928757421</v>
       </c>
       <c r="U16" t="n">
-        <v>204.0004542924462</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V16" t="n">
-        <v>270.6612373794854</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>209.3840902898962</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>146.5404788227635</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>264.4496194244605</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.8004861190321</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>259.4043121301076</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>3.350802775708104</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.22684974364297</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I19" t="n">
         <v>83.80004204681615</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S19" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,16 +23977,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>23.8464788783445</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>179.4569590521466</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>78.75847874963685</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S22" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>264.4365349479553</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>362.8047850003449</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>189.7952220670863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>11.79263827374629</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>72.30692305321475</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>270.2363198474177</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>100.848164607488</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.94748605903834</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>123.3097378635527</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24618,10 +24618,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>156.4962831677919</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>210.4037286417197</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100.4972245147248</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>125.6314057056436</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
         <v>166.3415337283568</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188677</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>60.90326883013265</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>96.40533784753944</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>74.22471534465906</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>75.67106876987258</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>331.7805248483383</v>
       </c>
       <c r="G35" t="n">
-        <v>47.80642784030886</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188677</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.515104035352635</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
-        <v>83.80004204681615</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733679</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>162.5401548468328</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,7 +25405,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.94145400123523</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>119.4262070810679</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.80326444576092</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>57.12613740329161</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733679</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,7 +25636,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>286.8972087471001</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188677</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
         <v>209.8004861190321</v>
@@ -25687,16 +25687,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>45.69849457709199</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>76.03191685878572</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5343322142292</v>
@@ -25806,7 +25806,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681615</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>46.29024711123273</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0.972317720388105</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>139.2664364502346</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>41.0963272217154</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733679</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>76.03191685878589</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>202945.8746485224</v>
+        <v>202945.8746485223</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>557832.2634008346</v>
+        <v>557832.2634008348</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>557832.2634008348</v>
+        <v>557832.2634008345</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>557832.2634008348</v>
+        <v>557832.2634008345</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>557832.2634008346</v>
+        <v>557832.2634008348</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>557832.2634008348</v>
+        <v>557832.2634008345</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557832.2634008348</v>
+        <v>557832.2634008345</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>38801.81820547023</v>
       </c>
       <c r="D2" t="n">
-        <v>40150.10032260042</v>
+        <v>40150.10032260044</v>
       </c>
       <c r="E2" t="n">
-        <v>59164.26815904779</v>
+        <v>59164.26815904781</v>
       </c>
       <c r="F2" t="n">
-        <v>59164.26815904781</v>
+        <v>59164.26815904778</v>
       </c>
       <c r="G2" t="n">
-        <v>161192.7346476189</v>
+        <v>161192.734647619</v>
       </c>
       <c r="H2" t="n">
         <v>161192.7346476189</v>
@@ -26337,7 +26337,7 @@
         <v>161192.734647619</v>
       </c>
       <c r="J2" t="n">
-        <v>161192.734647619</v>
+        <v>161192.7346476189</v>
       </c>
       <c r="K2" t="n">
         <v>161192.7346476189</v>
@@ -26374,13 +26374,13 @@
         <v>81432.90918651226</v>
       </c>
       <c r="E3" t="n">
-        <v>124744.2216121313</v>
+        <v>124744.2216121312</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>395120.1328285699</v>
+        <v>395120.13282857</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.51120179922</v>
+        <v>18926.5112017992</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>103511.8400876042</v>
+        <v>103511.8400876043</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>10569.77269810509</v>
       </c>
       <c r="E4" t="n">
-        <v>3332.327916037651</v>
+        <v>3332.327916037652</v>
       </c>
       <c r="F4" t="n">
         <v>3332.327916037651</v>
@@ -26435,31 +26435,31 @@
         <v>14245.6324043818</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.6324043818</v>
+        <v>14245.63240438179</v>
       </c>
       <c r="I4" t="n">
-        <v>14245.6324043818</v>
+        <v>14245.63240438179</v>
       </c>
       <c r="J4" t="n">
         <v>14245.6324043818</v>
       </c>
       <c r="K4" t="n">
-        <v>14245.6324043818</v>
+        <v>14245.63240438181</v>
       </c>
       <c r="L4" t="n">
         <v>14245.6324043818</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.63240438179</v>
+        <v>14245.6324043818</v>
       </c>
       <c r="N4" t="n">
         <v>14245.6324043818</v>
       </c>
       <c r="O4" t="n">
+        <v>14245.63240438181</v>
+      </c>
+      <c r="P4" t="n">
         <v>14245.6324043818</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14245.63240438179</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>9460.071166703488</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703488</v>
+        <v>9460.071166703485</v>
       </c>
       <c r="G5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194159</v>
       </c>
       <c r="H5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194157</v>
@@ -26496,22 +26496,22 @@
         <v>43385.32273194158</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="L5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194159</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194159</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="O5" t="n">
-        <v>43385.32273194159</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="P5" t="n">
-        <v>43385.32273194159</v>
+        <v>43385.32273194157</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19076.91817294867</v>
+        <v>-20463.23073948904</v>
       </c>
       <c r="C6" t="n">
-        <v>-19076.91817294867</v>
+        <v>-20463.23073948905</v>
       </c>
       <c r="D6" t="n">
-        <v>-87553.05451863132</v>
+        <v>-88930.94032193963</v>
       </c>
       <c r="E6" t="n">
-        <v>-78372.35253582461</v>
+        <v>-79631.39979015508</v>
       </c>
       <c r="F6" t="n">
-        <v>46371.86907630667</v>
+        <v>45112.82182197613</v>
       </c>
       <c r="G6" t="n">
-        <v>-291558.3533172744</v>
+        <v>-292179.7226560513</v>
       </c>
       <c r="H6" t="n">
-        <v>103561.7795112955</v>
+        <v>102940.4101725186</v>
       </c>
       <c r="I6" t="n">
-        <v>103561.7795112957</v>
+        <v>102940.4101725186</v>
       </c>
       <c r="J6" t="n">
-        <v>103561.7795112956</v>
+        <v>102940.4101725186</v>
       </c>
       <c r="K6" t="n">
-        <v>103561.7795112956</v>
+        <v>102940.4101725186</v>
       </c>
       <c r="L6" t="n">
-        <v>103561.7795112955</v>
+        <v>102940.4101725186</v>
       </c>
       <c r="M6" t="n">
-        <v>84635.26830949631</v>
+        <v>84013.8989707194</v>
       </c>
       <c r="N6" t="n">
-        <v>103561.7795112956</v>
+        <v>102940.4101725187</v>
       </c>
       <c r="O6" t="n">
-        <v>49.93942369127763</v>
+        <v>-571.4299150856807</v>
       </c>
       <c r="P6" t="n">
-        <v>103561.7795112956</v>
+        <v>102940.4101725187</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>95.08591544102765</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="G3" t="n">
         <v>578.6986538040986</v>
       </c>
       <c r="H3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040985</v>
@@ -26764,22 +26764,22 @@
         <v>578.6986538040985</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="L3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="M3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="N3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="O3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040984</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="F4" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="G4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.0804618258592</v>
       </c>
       <c r="H4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.080461825859</v>
       </c>
       <c r="I4" t="n">
         <v>506.080461825859</v>
@@ -26819,19 +26819,19 @@
         <v>506.0804618258591</v>
       </c>
       <c r="L4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="M4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="N4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="O4" t="n">
         <v>506.0804618258591</v>
       </c>
-      <c r="M4" t="n">
-        <v>506.0804618258592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>506.0804618258592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>506.0804618258592</v>
-      </c>
       <c r="P4" t="n">
-        <v>506.0804618258592</v>
+        <v>506.0804618258589</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>430.1325990234997</v>
+        <v>430.1325990234998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>430.1325990234997</v>
+        <v>430.1325990234999</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>430.1325990234997</v>
+        <v>430.1325990234998</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561853</v>
+        <v>0.8929862354561852</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865659</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242462</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154948</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K11" t="n">
         <v>113.5911978484098</v>
@@ -31776,16 +31776,16 @@
         <v>159.3377664580359</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P11" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.4324673341192</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297465</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S11" t="n">
         <v>20.34892384045784</v>
@@ -31834,7 +31834,7 @@
         <v>0.477789757961298</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731484</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I12" t="n">
         <v>16.45021754384294</v>
@@ -31858,19 +31858,19 @@
         <v>113.6783377198532</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946927</v>
       </c>
       <c r="Q12" t="n">
         <v>60.98944348993692</v>
       </c>
       <c r="R12" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219717</v>
       </c>
       <c r="T12" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U12" t="n">
         <v>0.03143353670798014</v>
@@ -31922,31 +31922,31 @@
         <v>28.31979583351247</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L13" t="n">
         <v>59.55277627121809</v>
       </c>
       <c r="M13" t="n">
-        <v>62.79005266262769</v>
+        <v>62.79005266262768</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297876</v>
+        <v>61.29704555297875</v>
       </c>
       <c r="O13" t="n">
         <v>56.61774278249352</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773175</v>
+        <v>48.44625996773174</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797788</v>
+        <v>6.980718607797787</v>
       </c>
       <c r="T13" t="n">
         <v>1.711495954963464</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561853</v>
+        <v>0.8929862354561852</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865659</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242462</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154948</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K14" t="n">
         <v>113.5911978484098</v>
@@ -32013,16 +32013,16 @@
         <v>159.3377664580359</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P14" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.4324673341192</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297465</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S14" t="n">
         <v>20.34892384045784</v>
@@ -32071,7 +32071,7 @@
         <v>0.477789757961298</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731484</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I15" t="n">
         <v>16.45021754384294</v>
@@ -32095,19 +32095,19 @@
         <v>113.6783377198532</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946927</v>
       </c>
       <c r="Q15" t="n">
         <v>60.98944348993692</v>
       </c>
       <c r="R15" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219717</v>
       </c>
       <c r="T15" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U15" t="n">
         <v>0.03143353670798014</v>
@@ -32159,31 +32159,31 @@
         <v>28.31979583351247</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L16" t="n">
         <v>59.55277627121809</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262769</v>
+        <v>62.79005266262768</v>
       </c>
       <c r="N16" t="n">
-        <v>61.29704555297876</v>
+        <v>61.29704555297875</v>
       </c>
       <c r="O16" t="n">
         <v>56.61774278249352</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773175</v>
+        <v>48.44625996773174</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797788</v>
+        <v>6.980718607797787</v>
       </c>
       <c r="T16" t="n">
         <v>1.711495954963464</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H20" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I20" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J20" t="n">
         <v>197.4525622846457</v>
@@ -32478,16 +32478,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L20" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M20" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N20" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O20" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P20" t="n">
         <v>334.5430745340568</v>
@@ -32499,7 +32499,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S20" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T20" t="n">
         <v>10.18393309357765</v>
@@ -32545,10 +32545,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H21" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I21" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J21" t="n">
         <v>117.601393411265</v>
@@ -32557,34 +32557,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L21" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M21" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N21" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O21" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P21" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q21" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R21" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S21" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T21" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H22" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I22" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J22" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K22" t="n">
         <v>121.2421114035472</v>
@@ -32639,10 +32639,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M22" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N22" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O22" t="n">
         <v>147.5017486778054</v>
@@ -32651,19 +32651,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R22" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S22" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T22" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H29" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I29" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J29" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K29" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L29" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M29" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N29" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O29" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P29" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R29" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S29" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T29" t="n">
         <v>10.18393309357765</v>
@@ -33256,10 +33256,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H30" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I30" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J30" t="n">
         <v>117.601393411265</v>
@@ -33268,34 +33268,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L30" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N30" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O30" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P30" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R30" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S30" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T30" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H31" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I31" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J31" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K31" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L31" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M31" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N31" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O31" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P31" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R31" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S31" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T31" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H32" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I32" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J32" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L32" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M32" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N32" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O32" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P32" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R32" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S32" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T32" t="n">
         <v>10.18393309357765</v>
@@ -33493,10 +33493,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H33" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I33" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J33" t="n">
         <v>117.601393411265</v>
@@ -33505,34 +33505,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L33" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N33" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O33" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P33" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R33" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S33" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T33" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H34" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I34" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J34" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K34" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L34" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M34" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N34" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O34" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P34" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R34" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S34" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T34" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H35" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I35" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J35" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L35" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M35" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N35" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O35" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P35" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R35" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S35" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T35" t="n">
         <v>10.18393309357765</v>
@@ -33730,10 +33730,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H36" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I36" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J36" t="n">
         <v>117.601393411265</v>
@@ -33742,34 +33742,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L36" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N36" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O36" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P36" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R36" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S36" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T36" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H37" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I37" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J37" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K37" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L37" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M37" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N37" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O37" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P37" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S37" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T37" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H38" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I38" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J38" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K38" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L38" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M38" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N38" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O38" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P38" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R38" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S38" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T38" t="n">
         <v>10.18393309357765</v>
@@ -33967,10 +33967,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H39" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I39" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J39" t="n">
         <v>117.601393411265</v>
@@ -33979,34 +33979,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L39" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M39" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N39" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O39" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P39" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R39" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S39" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T39" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H40" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I40" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J40" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K40" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L40" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M40" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N40" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O40" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P40" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R40" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S40" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T40" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H41" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I41" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J41" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L41" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M41" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N41" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O41" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P41" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R41" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S41" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T41" t="n">
         <v>10.18393309357765</v>
@@ -34204,10 +34204,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H42" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I42" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J42" t="n">
         <v>117.601393411265</v>
@@ -34216,34 +34216,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L42" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M42" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N42" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O42" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P42" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R42" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S42" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T42" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H43" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I43" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J43" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K43" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L43" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M43" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N43" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O43" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P43" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R43" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S43" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T43" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N44" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P44" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R44" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907712</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M45" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O45" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P45" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I46" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J46" t="n">
-        <v>73.77933492843401</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K46" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L46" t="n">
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O46" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P46" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241531</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K11" t="n">
-        <v>24.4548081751927</v>
+        <v>24.45480817519268</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890726</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950056</v>
+        <v>63.51034485950053</v>
       </c>
       <c r="N11" t="n">
         <v>66.42547570141657</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343531</v>
       </c>
       <c r="P11" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967149</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>21.32678528056491</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105473</v>
+        <v>47.62662517105471</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958337</v>
+        <v>63.49674396958336</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935094</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985322</v>
+        <v>55.92685871985321</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666552</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098205</v>
+        <v>4.296824985098198</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.544593212513</v>
+        <v>42.54459321251299</v>
       </c>
       <c r="K13" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316586</v>
+        <v>4.924482377316579</v>
       </c>
       <c r="M13" t="n">
-        <v>6.525110163847643</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="N13" t="n">
-        <v>9.584400044559317</v>
+        <v>9.58440004455931</v>
       </c>
       <c r="O13" t="n">
-        <v>75.94786280235948</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="P13" t="n">
-        <v>75.94786280235948</v>
+        <v>15.82578665070361</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.300676486855931</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241531</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K14" t="n">
-        <v>24.4548081751927</v>
+        <v>24.45480817519268</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890726</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950056</v>
+        <v>63.51034485950053</v>
       </c>
       <c r="N14" t="n">
         <v>66.42547570141657</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343531</v>
       </c>
       <c r="P14" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.398662934967149</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056491</v>
+        <v>21.32678528056471</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105473</v>
+        <v>47.62662517105471</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958337</v>
+        <v>63.49674396958336</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935094</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985322</v>
+        <v>55.92685871985321</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666552</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098205</v>
+        <v>4.296824985098198</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.22690736718829</v>
       </c>
       <c r="L16" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="M16" t="n">
-        <v>6.525110163847643</v>
+        <v>6.525110163847636</v>
       </c>
       <c r="N16" t="n">
-        <v>9.584400044559317</v>
+        <v>9.58440004455931</v>
       </c>
       <c r="O16" t="n">
-        <v>56.76975207668548</v>
+        <v>0.5428447094971887</v>
       </c>
       <c r="P16" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.94786280235945</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.549893009077124</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J18" t="n">
-        <v>312.361855595743</v>
+        <v>66.232154611265</v>
       </c>
       <c r="K18" t="n">
         <v>145.1737298295874</v>
@@ -35983,10 +35983,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q18" t="n">
-        <v>361.1414746226779</v>
+        <v>498.6474177014203</v>
       </c>
       <c r="R18" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>22.34618924547859</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K19" t="n">
         <v>277.3555737492421</v>
@@ -36056,13 +36056,13 @@
         <v>107.9797223519805</v>
       </c>
       <c r="O19" t="n">
-        <v>235.2146617808548</v>
+        <v>297.1061734722697</v>
       </c>
       <c r="P19" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449332</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J20" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K20" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L20" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M20" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N20" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O20" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P20" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R20" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.54989300907711</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J21" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K21" t="n">
         <v>145.1737298295874</v>
@@ -36208,13 +36208,13 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M21" t="n">
-        <v>259.6889308827173</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N21" t="n">
-        <v>506.0804618258591</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O21" t="n">
-        <v>506.0804618258591</v>
+        <v>388.72508501986</v>
       </c>
       <c r="P21" t="n">
         <v>183.4326479153363</v>
@@ -36223,7 +36223,7 @@
         <v>102.1983779132225</v>
       </c>
       <c r="R21" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K22" t="n">
-        <v>68.99174184448033</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L22" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M22" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273621</v>
       </c>
       <c r="N22" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O22" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P22" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.95442139913205</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333066</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794519</v>
@@ -36448,7 +36448,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>282.8772423491434</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
         <v>238.4057462161409</v>
@@ -36457,7 +36457,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>506.080461825859</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R24" t="n">
         <v>107.1416677554515</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K25" t="n">
-        <v>68.99174184448033</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273625</v>
       </c>
       <c r="N25" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O25" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>160.0217794650455</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J27" t="n">
-        <v>167.4228683925619</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K27" t="n">
-        <v>145.1737298295874</v>
+        <v>246.3644436108843</v>
       </c>
       <c r="L27" t="n">
         <v>214.1541257794519</v>
@@ -36761,10 +36761,10 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>107.3170392642375</v>
+        <v>215.6404327273627</v>
       </c>
       <c r="N28" t="n">
-        <v>216.3031158151059</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O28" t="n">
         <v>409.6841833510116</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J29" t="n">
-        <v>124.1289709513373</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L29" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M29" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N29" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O29" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P29" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R29" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>22.3153514431149</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
-        <v>66.232154611265</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L30" t="n">
-        <v>506.0804618258591</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
-        <v>431.7867494296293</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P30" t="n">
-        <v>183.4326479153363</v>
+        <v>333.7519867190562</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132225</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375331</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.00413230743453</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K31" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N31" t="n">
-        <v>216.3031158151055</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O31" t="n">
-        <v>409.6841833510116</v>
+        <v>169.5567187188992</v>
       </c>
       <c r="P31" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.5734258178642</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J32" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L32" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M32" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O32" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P32" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q32" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R32" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.549893009077124</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J33" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K33" t="n">
-        <v>404.1168265390426</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="L33" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O33" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P33" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132225</v>
+        <v>246.3644436108844</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375331</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.34618924547859</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K34" t="n">
-        <v>68.99174184448036</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L34" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
-        <v>443.3679056323699</v>
+        <v>186.1095904660701</v>
       </c>
       <c r="O34" t="n">
-        <v>409.6841833510116</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P34" t="n">
-        <v>160.0217794650457</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.02397106449332</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J35" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K35" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L35" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M35" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O35" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P35" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R35" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.549893009077124</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J36" t="n">
-        <v>66.232154611265</v>
+        <v>167.4228683925619</v>
       </c>
       <c r="K36" t="n">
-        <v>506.0804618258592</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N36" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O36" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P36" t="n">
-        <v>327.5987136129972</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375331</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>22.34618924547859</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>68.99174184448036</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M37" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>409.6841833510116</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>160.0217794650462</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.02397106449332</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J38" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K38" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L38" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M38" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N38" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O38" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P38" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q38" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R38" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.3153514431149</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>295.4930686333066</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L39" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P39" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132225</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R39" t="n">
-        <v>107.1416677554516</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.00413230743453</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
-        <v>92.92219217911911</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L40" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N40" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O40" t="n">
-        <v>409.6841833510116</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>70.43338606845134</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.02397106449332</v>
+        <v>49.95442139913182</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J41" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K41" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L41" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M41" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O41" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P41" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R41" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.3153514431149</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J42" t="n">
-        <v>66.232154611265</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K42" t="n">
-        <v>145.1737298295874</v>
+        <v>315.2585270673452</v>
       </c>
       <c r="L42" t="n">
-        <v>287.9553516571266</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N42" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O42" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P42" t="n">
-        <v>506.0804618258592</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132225</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1416677554516</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>88.00413230743453</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>92.92219217911911</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>409.6841833510116</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
-        <v>70.43338606845134</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.02397106449332</v>
+        <v>49.95442139913228</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M44" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077124</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
@@ -38101,25 +38101,25 @@
         <v>145.1737298295874</v>
       </c>
       <c r="L45" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>272.283175150979</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554516</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547859</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>68.99174184448036</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N46" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O46" t="n">
-        <v>409.6841833510116</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>160.0217794650462</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.02397106449332</v>
+        <v>49.95442139913182</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
